--- a/storage/app/public/data/danhsachvattu.xlsx
+++ b/storage/app/public/data/danhsachvattu.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\v20\storage\app\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\20V\storage\app\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="169">
   <si>
     <t>Tên vật tư y tế</t>
   </si>
@@ -967,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H115"/>
+  <dimension ref="A1:H252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D117" sqref="D117"/>
+    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I247" sqref="I247"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3646,6 +3646,3157 @@
       </c>
       <c r="G115" s="17">
         <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A116" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="4">
+        <v>10</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G116" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B117" s="4">
+        <v>90407219</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="4">
+        <v>10</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G117" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A118" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B118" s="4">
+        <v>6410419</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D118" s="4">
+        <v>10</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B119" s="6">
+        <v>6414810</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="4">
+        <v>10</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G119" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="4">
+        <v>42411608</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D120" s="4">
+        <v>10</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F120" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G120" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A121" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="4">
+        <v>10</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G121" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A122" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="4">
+        <v>10</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G122" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A123" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" s="4">
+        <v>10</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G123" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A124" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="4">
+        <v>10</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G124" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A125" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D125" s="4">
+        <v>10</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G125" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A126" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D126" s="4">
+        <v>10</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G126" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A127" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D127" s="4">
+        <v>10</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G127" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A128" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D128" s="4">
+        <v>10</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G128" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A129" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D129" s="4">
+        <v>10</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F129" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G129" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A130" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C130" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130" s="4">
+        <v>10</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G130" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A131" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" s="4">
+        <v>10</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G131" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A132" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D132" s="4">
+        <v>10</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G132" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A133" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" s="4">
+        <v>10</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G133" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A134" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D134" s="4">
+        <v>10</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G134" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A135" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D135" s="4">
+        <v>10</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G135" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A136" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D136" s="4">
+        <v>10</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G136" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A137" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C137" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D137" s="4">
+        <v>10</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G137" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A138" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D138" s="4">
+        <v>10</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G138" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A139" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D139" s="4">
+        <v>10</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G139" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A140" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C140" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D140" s="4">
+        <v>10</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G140" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A141" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C141" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D141" s="4">
+        <v>10</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F141" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G141" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A142" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C142" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D142" s="4">
+        <v>10</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G142" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A143" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C143" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D143" s="4">
+        <v>10</v>
+      </c>
+      <c r="E143" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G143" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A144" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C144" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" s="4">
+        <v>10</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G144" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A145" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C145" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D145" s="4">
+        <v>10</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G145" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A146" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C146" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D146" s="4">
+        <v>10</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G146" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A147" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B147" s="6">
+        <v>6005500030</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D147" s="4">
+        <v>10</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G147" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A148" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C148" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" s="4">
+        <v>10</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G148" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A149" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C149" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D149" s="4">
+        <v>10</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G149" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A150" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D150" s="4">
+        <v>10</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G150" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A151" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B151" s="6">
+        <v>326</v>
+      </c>
+      <c r="C151" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D151" s="4">
+        <v>10</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G151" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A152" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C152" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152" s="4">
+        <v>10</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G152" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A153" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C153" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D153" s="4">
+        <v>10</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G153" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A154" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B154" s="6">
+        <v>4163214</v>
+      </c>
+      <c r="C154" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D154" s="4">
+        <v>10</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G154" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A155" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B155" s="6">
+        <v>503853</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D155" s="4">
+        <v>10</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G155" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A156" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D156" s="4">
+        <v>10</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F156" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G156" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A157" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D157" s="4">
+        <v>10</v>
+      </c>
+      <c r="E157" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G157" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A158" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B158" s="6">
+        <v>503852</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D158" s="4">
+        <v>10</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G158" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A159" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B159" s="6">
+        <v>550197</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D159" s="4">
+        <v>10</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G159" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A160" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D160" s="4">
+        <v>10</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G160" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A161" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D161" s="4">
+        <v>10</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G161" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A162" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D162" s="4">
+        <v>10</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G162" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A163" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D163" s="4">
+        <v>10</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G163" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A164" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D164" s="4">
+        <v>10</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G164" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A165" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D165" s="4">
+        <v>10</v>
+      </c>
+      <c r="E165" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G165" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A166" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D166" s="4">
+        <v>10</v>
+      </c>
+      <c r="E166" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G166" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A167" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D167" s="4">
+        <v>10</v>
+      </c>
+      <c r="E167" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G167" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A168" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D168" s="4">
+        <v>10</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G168" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A169" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D169" s="4">
+        <v>10</v>
+      </c>
+      <c r="E169" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F169" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G169" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A170" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D170" s="4">
+        <v>10</v>
+      </c>
+      <c r="E170" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F170" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G170" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A171" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B171" s="6">
+        <v>5030850</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D171" s="4">
+        <v>10</v>
+      </c>
+      <c r="E171" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G171" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A172" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B172" s="6">
+        <v>5030850</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D172" s="4">
+        <v>10</v>
+      </c>
+      <c r="E172" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G172" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A173" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173" s="4">
+        <v>10</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G173" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A174" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D174" s="4">
+        <v>10</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F174" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G174" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A175" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D175" s="4">
+        <v>10</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G175" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A176" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D176" s="4">
+        <v>10</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G176" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A177" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D177" s="4">
+        <v>10</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G177" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A178" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D178" s="4">
+        <v>10</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G178" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A179" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C179" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D179" s="4">
+        <v>10</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G179" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A180" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B180" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C180" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D180" s="4">
+        <v>10</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G180" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A181" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C181" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D181" s="4">
+        <v>10</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F181" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G181" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A182" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C182" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D182" s="4">
+        <v>10</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F182" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G182" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A183" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C183" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D183" s="4">
+        <v>10</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F183" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G183" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A184" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C184" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D184" s="4">
+        <v>10</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F184" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G184" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A185" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B185" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C185" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D185" s="4">
+        <v>10</v>
+      </c>
+      <c r="E185" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F185" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G185" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A186" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C186" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D186" s="4">
+        <v>10</v>
+      </c>
+      <c r="E186" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F186" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G186" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A187" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C187" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D187" s="4">
+        <v>10</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F187" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G187" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A188" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C188" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D188" s="4">
+        <v>10</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F188" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G188" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A189" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C189" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D189" s="4">
+        <v>10</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G189" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A190" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B190" s="6">
+        <v>6005500030</v>
+      </c>
+      <c r="C190" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D190" s="4">
+        <v>10</v>
+      </c>
+      <c r="E190" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F190" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G190" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A191" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C191" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D191" s="4">
+        <v>10</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G191" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A192" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C192" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D192" s="4">
+        <v>10</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F192" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G192" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A193" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C193" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D193" s="4">
+        <v>10</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F193" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G193" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A194" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B194" s="6">
+        <v>326</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D194" s="4">
+        <v>10</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F194" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G194" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A195" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C195" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D195" s="4">
+        <v>10</v>
+      </c>
+      <c r="E195" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G195" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A196" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C196" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D196" s="4">
+        <v>10</v>
+      </c>
+      <c r="E196" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G196" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A197" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B197" s="6">
+        <v>4163214</v>
+      </c>
+      <c r="C197" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D197" s="4">
+        <v>10</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G197" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A198" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B198" s="6">
+        <v>503853</v>
+      </c>
+      <c r="C198" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D198" s="4">
+        <v>10</v>
+      </c>
+      <c r="E198" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G198" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A199" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C199" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D199" s="4">
+        <v>10</v>
+      </c>
+      <c r="E199" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F199" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G199" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A200" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C200" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D200" s="4">
+        <v>10</v>
+      </c>
+      <c r="E200" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F200" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G200" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A201" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B201" s="6">
+        <v>503852</v>
+      </c>
+      <c r="C201" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D201" s="4">
+        <v>10</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F201" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G201" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A202" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B202" s="6">
+        <v>550197</v>
+      </c>
+      <c r="C202" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D202" s="4">
+        <v>10</v>
+      </c>
+      <c r="E202" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F202" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G202" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A203" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C203" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D203" s="4">
+        <v>10</v>
+      </c>
+      <c r="E203" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F203" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G203" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A204" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C204" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D204" s="4">
+        <v>10</v>
+      </c>
+      <c r="E204" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F204" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G204" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A205" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C205" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D205" s="4">
+        <v>10</v>
+      </c>
+      <c r="E205" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G205" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A206" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C206" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D206" s="4">
+        <v>10</v>
+      </c>
+      <c r="E206" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G206" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A207" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C207" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D207" s="4">
+        <v>10</v>
+      </c>
+      <c r="E207" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F207" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G207" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A208" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C208" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D208" s="4">
+        <v>10</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G208" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A209" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C209" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D209" s="4">
+        <v>10</v>
+      </c>
+      <c r="E209" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F209" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G209" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A210" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C210" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D210" s="4">
+        <v>10</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G210" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A211" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C211" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D211" s="4">
+        <v>10</v>
+      </c>
+      <c r="E211" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F211" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G211" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A212" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C212" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D212" s="4">
+        <v>10</v>
+      </c>
+      <c r="E212" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F212" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G212" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A213" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C213" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D213" s="4">
+        <v>10</v>
+      </c>
+      <c r="E213" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G213" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A214" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B214" s="6">
+        <v>5030850</v>
+      </c>
+      <c r="C214" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D214" s="4">
+        <v>10</v>
+      </c>
+      <c r="E214" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F214" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G214" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A215" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B215" s="6">
+        <v>5030850</v>
+      </c>
+      <c r="C215" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D215" s="4">
+        <v>10</v>
+      </c>
+      <c r="E215" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F215" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G215" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A216" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B216" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C216" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D216" s="4">
+        <v>10</v>
+      </c>
+      <c r="E216" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F216" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G216" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A217" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B217" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C217" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D217" s="4">
+        <v>10</v>
+      </c>
+      <c r="E217" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F217" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G217" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A218" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B218" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C218" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D218" s="4">
+        <v>10</v>
+      </c>
+      <c r="E218" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G218" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A219" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C219" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D219" s="4">
+        <v>10</v>
+      </c>
+      <c r="E219" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G219" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A220" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B220" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C220" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D220" s="4">
+        <v>10</v>
+      </c>
+      <c r="E220" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G220" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A221" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B221" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C221" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D221" s="4">
+        <v>10</v>
+      </c>
+      <c r="E221" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G221" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A222" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C222" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D222" s="4">
+        <v>10</v>
+      </c>
+      <c r="E222" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F222" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G222" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A223" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B223" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C223" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D223" s="4">
+        <v>10</v>
+      </c>
+      <c r="E223" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F223" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G223" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A224" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B224" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C224" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D224" s="4">
+        <v>10</v>
+      </c>
+      <c r="E224" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F224" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G224" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A225" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C225" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D225" s="4">
+        <v>10</v>
+      </c>
+      <c r="E225" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F225" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G225" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A226" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C226" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D226" s="4">
+        <v>10</v>
+      </c>
+      <c r="E226" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F226" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G226" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A227" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B227" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C227" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D227" s="4">
+        <v>10</v>
+      </c>
+      <c r="E227" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F227" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G227" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A228" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B228" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C228" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D228" s="4">
+        <v>10</v>
+      </c>
+      <c r="E228" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F228" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G228" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A229" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C229" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D229" s="4">
+        <v>10</v>
+      </c>
+      <c r="E229" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F229" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G229" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A230" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C230" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D230" s="4">
+        <v>10</v>
+      </c>
+      <c r="E230" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F230" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G230" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A231" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C231" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D231" s="4">
+        <v>10</v>
+      </c>
+      <c r="E231" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F231" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G231" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A232" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C232" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D232" s="4">
+        <v>10</v>
+      </c>
+      <c r="E232" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F232" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G232" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A233" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B233" s="6">
+        <v>6005500030</v>
+      </c>
+      <c r="C233" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D233" s="4">
+        <v>10</v>
+      </c>
+      <c r="E233" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F233" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G233" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A234" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C234" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D234" s="4">
+        <v>10</v>
+      </c>
+      <c r="E234" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F234" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G234" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A235" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C235" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D235" s="4">
+        <v>10</v>
+      </c>
+      <c r="E235" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F235" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G235" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A236" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B236" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C236" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D236" s="4">
+        <v>10</v>
+      </c>
+      <c r="E236" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F236" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G236" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A237" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B237" s="6">
+        <v>326</v>
+      </c>
+      <c r="C237" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D237" s="4">
+        <v>10</v>
+      </c>
+      <c r="E237" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F237" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G237" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A238" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B238" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D238" s="4">
+        <v>10</v>
+      </c>
+      <c r="E238" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F238" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G238" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A239" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C239" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D239" s="4">
+        <v>10</v>
+      </c>
+      <c r="E239" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F239" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G239" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A240" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B240" s="6">
+        <v>4163214</v>
+      </c>
+      <c r="C240" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D240" s="4">
+        <v>10</v>
+      </c>
+      <c r="E240" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F240" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G240" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A241" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B241" s="6">
+        <v>503853</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D241" s="4">
+        <v>10</v>
+      </c>
+      <c r="E241" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F241" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G241" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A242" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C242" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D242" s="4">
+        <v>10</v>
+      </c>
+      <c r="E242" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F242" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G242" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A243" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D243" s="4">
+        <v>10</v>
+      </c>
+      <c r="E243" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F243" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G243" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A244" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B244" s="6">
+        <v>503852</v>
+      </c>
+      <c r="C244" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D244" s="4">
+        <v>10</v>
+      </c>
+      <c r="E244" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F244" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G244" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A245" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B245" s="6">
+        <v>550197</v>
+      </c>
+      <c r="C245" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D245" s="4">
+        <v>10</v>
+      </c>
+      <c r="E245" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F245" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G245" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A246" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C246" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D246" s="4">
+        <v>10</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G246" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A247" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C247" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D247" s="4">
+        <v>10</v>
+      </c>
+      <c r="E247" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G247" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A248" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C248" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D248" s="4">
+        <v>10</v>
+      </c>
+      <c r="E248" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F248" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G248" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A249" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C249" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D249" s="4">
+        <v>10</v>
+      </c>
+      <c r="E249" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G249" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A250" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C250" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D250" s="4">
+        <v>10</v>
+      </c>
+      <c r="E250" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G250" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A251" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C251" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D251" s="4">
+        <v>10</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G251" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A252" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C252" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D252" s="4">
+        <v>10</v>
+      </c>
+      <c r="E252" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F252" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G252" s="17">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -3718,8 +6869,104 @@
     <hyperlink ref="A113" r:id="rId66" tooltip="Bộ dây truyền chống gập màu vàng kèm túi chứa dịch giảm đau 100ml dùng cho máy Rythmic Evolution" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67aa&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
     <hyperlink ref="A114" r:id="rId67" tooltip="Chăn làm ấm phẫu thuật trẻ em WarmTouch cỡ 63x104cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67a8&amp;categoryId=5f9bc57da7307960eb32bb63"/>
     <hyperlink ref="A115" r:id="rId68" tooltip="Chăn làm ấm phẫu thuật trẻ em WarmTouch cỡ 63x104cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67a8&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A133" r:id="rId69" tooltip="Vít mắt cá chân đường kính 4.5mm" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ee&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A135" r:id="rId70" tooltip="Vi ống thông Asahi Tellus" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ea&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A136" r:id="rId71" tooltip="Vít xốp đường kính 6.5, ren 32 mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e8&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A138" r:id="rId72" tooltip="Vi ống thông can thiệp Asahi Masters PARKWAY HF KIT" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e4&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A140" r:id="rId73" tooltip="Vít xương cứng đường kính 4.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e0&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A141" r:id="rId74" tooltip="Vít xương cứng đường kính 3.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68de&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A142" r:id="rId75" tooltip="Khẩu trang 3 lớp hộp 55 cái" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68dc"/>
+    <hyperlink ref="A144" r:id="rId76" tooltip="Nẹp DCP, vít 3.5mm, 8~12 lỗ" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A146" r:id="rId77" tooltip="Dây cho ăn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d4&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A147" r:id="rId78" tooltip="Túi ép tiệt trùng Tyvek" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68cc&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A148" r:id="rId79" tooltip="Thông hậu môn (Rectal)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A149" r:id="rId80" tooltip="Dây thông T" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c6&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A151" r:id="rId81" tooltip="Nẹp khóa đa hướng đầu trên mâm chày (trái, phải)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c2&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A152" r:id="rId82" tooltip="Bộ túi máu rỗng 150 mL (4 túi)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cf&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A153" r:id="rId83" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cd&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A154" r:id="rId84" tooltip="CERTOFIX TRIO V 720" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cb&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A155" r:id="rId85" tooltip="Urgostart Micro-Adhesive 10cm x 10cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c9&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A156" r:id="rId86" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c7&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A157" r:id="rId87" tooltip="Thông foley 3 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c5&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A158" r:id="rId88" tooltip="Urgostart Micro-Adhesive 6cm x 6cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c3&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A159" r:id="rId89" tooltip="Urgostart Contact 5cm x 7cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c1&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A160" r:id="rId90" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Chỉ kèm miếng đệm Pledget 7x3x1,5mm." display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bf&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A161" r:id="rId91" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Đóng gói Multipack" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bd&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A162" r:id="rId92" tooltip="Chỉ không tan tổng hợp đơn sợi Surgipro số 7-0 dài 60, 2 kim tròn đầu cắt KV-11, 3/8C, 9mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bb&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A163" r:id="rId93" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b9&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A164" r:id="rId94" tooltip="Nẹp khóa xương đòn, móc xương đòn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b6&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A165" r:id="rId95" tooltip="Túi máu đơn Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b4&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A166" r:id="rId96" tooltip="Túi máu đôi Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b2&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A167" r:id="rId97" tooltip="Thông foley 2 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b0&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A168" r:id="rId98" tooltip="Nẹp khóa ốp lồi cầu đùi" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67ae&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A169" r:id="rId99" tooltip="Bộ dây truyền chống gập màu vàng kèm túi chứa dịch giảm đau 200ml dùng cho máy Rythmic Evolution" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67ac&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A170" r:id="rId100" tooltip="Bộ dây truyền chống gập màu vàng kèm túi chứa dịch giảm đau 100ml dùng cho máy Rythmic Evolution" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67aa&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A171" r:id="rId101" tooltip="Chăn làm ấm phẫu thuật trẻ em WarmTouch cỡ 63x104cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67a8&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A172" r:id="rId102" tooltip="Chăn làm ấm phẫu thuật trẻ em WarmTouch cỡ 63x104cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67a8&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A176" r:id="rId103" tooltip="Vít mắt cá chân đường kính 4.5mm" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ee&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A178" r:id="rId104" tooltip="Vi ống thông Asahi Tellus" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ea&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A179" r:id="rId105" tooltip="Vít xốp đường kính 6.5, ren 32 mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e8&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A181" r:id="rId106" tooltip="Vi ống thông can thiệp Asahi Masters PARKWAY HF KIT" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e4&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A183" r:id="rId107" tooltip="Vít xương cứng đường kính 4.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e0&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A184" r:id="rId108" tooltip="Vít xương cứng đường kính 3.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68de&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A185" r:id="rId109" tooltip="Khẩu trang 3 lớp hộp 55 cái" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68dc"/>
+    <hyperlink ref="A187" r:id="rId110" tooltip="Nẹp DCP, vít 3.5mm, 8~12 lỗ" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A189" r:id="rId111" tooltip="Dây cho ăn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d4&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A190" r:id="rId112" tooltip="Túi ép tiệt trùng Tyvek" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68cc&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A191" r:id="rId113" tooltip="Thông hậu môn (Rectal)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A192" r:id="rId114" tooltip="Dây thông T" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c6&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A194" r:id="rId115" tooltip="Nẹp khóa đa hướng đầu trên mâm chày (trái, phải)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c2&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A195" r:id="rId116" tooltip="Bộ túi máu rỗng 150 mL (4 túi)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cf&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A196" r:id="rId117" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cd&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A197" r:id="rId118" tooltip="CERTOFIX TRIO V 720" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cb&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A198" r:id="rId119" tooltip="Urgostart Micro-Adhesive 10cm x 10cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c9&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A199" r:id="rId120" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c7&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A200" r:id="rId121" tooltip="Thông foley 3 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c5&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A201" r:id="rId122" tooltip="Urgostart Micro-Adhesive 6cm x 6cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c3&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A202" r:id="rId123" tooltip="Urgostart Contact 5cm x 7cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c1&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A203" r:id="rId124" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Chỉ kèm miếng đệm Pledget 7x3x1,5mm." display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bf&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A204" r:id="rId125" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Đóng gói Multipack" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bd&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A205" r:id="rId126" tooltip="Chỉ không tan tổng hợp đơn sợi Surgipro số 7-0 dài 60, 2 kim tròn đầu cắt KV-11, 3/8C, 9mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bb&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A206" r:id="rId127" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b9&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A207" r:id="rId128" tooltip="Nẹp khóa xương đòn, móc xương đòn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b6&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A208" r:id="rId129" tooltip="Túi máu đơn Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b4&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A209" r:id="rId130" tooltip="Túi máu đôi Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b2&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A210" r:id="rId131" tooltip="Thông foley 2 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b0&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A211" r:id="rId132" tooltip="Nẹp khóa ốp lồi cầu đùi" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67ae&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A212" r:id="rId133" tooltip="Bộ dây truyền chống gập màu vàng kèm túi chứa dịch giảm đau 200ml dùng cho máy Rythmic Evolution" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67ac&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A213" r:id="rId134" tooltip="Bộ dây truyền chống gập màu vàng kèm túi chứa dịch giảm đau 100ml dùng cho máy Rythmic Evolution" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67aa&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A214" r:id="rId135" tooltip="Chăn làm ấm phẫu thuật trẻ em WarmTouch cỡ 63x104cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67a8&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A215" r:id="rId136" tooltip="Chăn làm ấm phẫu thuật trẻ em WarmTouch cỡ 63x104cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67a8&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A219" r:id="rId137" tooltip="Vít mắt cá chân đường kính 4.5mm" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ee&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A221" r:id="rId138" tooltip="Vi ống thông Asahi Tellus" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ea&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A222" r:id="rId139" tooltip="Vít xốp đường kính 6.5, ren 32 mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e8&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A224" r:id="rId140" tooltip="Vi ống thông can thiệp Asahi Masters PARKWAY HF KIT" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e4&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A226" r:id="rId141" tooltip="Vít xương cứng đường kính 4.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e0&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A227" r:id="rId142" tooltip="Vít xương cứng đường kính 3.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68de&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A228" r:id="rId143" tooltip="Khẩu trang 3 lớp hộp 55 cái" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68dc"/>
+    <hyperlink ref="A230" r:id="rId144" tooltip="Nẹp DCP, vít 3.5mm, 8~12 lỗ" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A232" r:id="rId145" tooltip="Dây cho ăn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d4&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A233" r:id="rId146" tooltip="Túi ép tiệt trùng Tyvek" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68cc&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A234" r:id="rId147" tooltip="Thông hậu môn (Rectal)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A235" r:id="rId148" tooltip="Dây thông T" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c6&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A237" r:id="rId149" tooltip="Nẹp khóa đa hướng đầu trên mâm chày (trái, phải)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c2&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A238" r:id="rId150" tooltip="Bộ túi máu rỗng 150 mL (4 túi)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cf&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A239" r:id="rId151" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cd&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A240" r:id="rId152" tooltip="CERTOFIX TRIO V 720" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cb&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A241" r:id="rId153" tooltip="Urgostart Micro-Adhesive 10cm x 10cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c9&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A242" r:id="rId154" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c7&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A243" r:id="rId155" tooltip="Thông foley 3 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c5&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A244" r:id="rId156" tooltip="Urgostart Micro-Adhesive 6cm x 6cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c3&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A245" r:id="rId157" tooltip="Urgostart Contact 5cm x 7cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c1&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A246" r:id="rId158" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Chỉ kèm miếng đệm Pledget 7x3x1,5mm." display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bf&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A247" r:id="rId159" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Đóng gói Multipack" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bd&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A248" r:id="rId160" tooltip="Chỉ không tan tổng hợp đơn sợi Surgipro số 7-0 dài 60, 2 kim tròn đầu cắt KV-11, 3/8C, 9mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bb&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A249" r:id="rId161" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b9&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A250" r:id="rId162" tooltip="Nẹp khóa xương đòn, móc xương đòn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b6&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A251" r:id="rId163" tooltip="Túi máu đơn Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b4&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A252" r:id="rId164" tooltip="Túi máu đôi Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b2&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId69"/>
+  <pageSetup orientation="portrait" r:id="rId165"/>
 </worksheet>
 </file>
--- a/storage/app/public/data/danhsachvattu.xlsx
+++ b/storage/app/public/data/danhsachvattu.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3007" uniqueCount="169">
   <si>
     <t>Tên vật tư y tế</t>
   </si>
@@ -967,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H252"/>
+  <dimension ref="A1:H624"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A231" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I247" sqref="I247"/>
+    <sheetView tabSelected="1" topLeftCell="A604" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I623" sqref="I623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6797,6 +6797,8562 @@
       </c>
       <c r="G252" s="17">
         <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A253" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C253" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D253" s="4">
+        <v>10</v>
+      </c>
+      <c r="E253" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F253" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G253" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A254" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C254" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D254" s="4">
+        <v>10</v>
+      </c>
+      <c r="E254" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F254" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G254" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A255" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C255" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D255" s="4">
+        <v>10</v>
+      </c>
+      <c r="E255" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F255" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G255" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A256" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B256" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D256" s="4">
+        <v>10</v>
+      </c>
+      <c r="E256" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F256" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G256" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A257" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B257" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C257" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D257" s="4">
+        <v>10</v>
+      </c>
+      <c r="E257" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F257" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G257" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A258" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D258" s="4">
+        <v>10</v>
+      </c>
+      <c r="E258" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F258" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G258" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A259" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B259" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C259" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D259" s="4">
+        <v>10</v>
+      </c>
+      <c r="E259" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F259" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G259" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A260" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B260" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C260" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D260" s="4">
+        <v>10</v>
+      </c>
+      <c r="E260" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F260" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G260" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A261" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C261" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D261" s="4">
+        <v>10</v>
+      </c>
+      <c r="E261" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F261" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G261" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A262" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C262" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D262" s="4">
+        <v>10</v>
+      </c>
+      <c r="E262" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F262" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G262" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A263" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C263" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D263" s="4">
+        <v>10</v>
+      </c>
+      <c r="E263" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F263" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G263" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A264" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B264" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C264" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D264" s="4">
+        <v>10</v>
+      </c>
+      <c r="E264" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F264" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G264" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A265" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C265" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D265" s="4">
+        <v>10</v>
+      </c>
+      <c r="E265" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F265" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G265" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A266" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C266" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D266" s="4">
+        <v>10</v>
+      </c>
+      <c r="E266" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G266" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A267" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C267" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D267" s="4">
+        <v>10</v>
+      </c>
+      <c r="E267" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F267" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G267" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A268" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C268" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D268" s="4">
+        <v>10</v>
+      </c>
+      <c r="E268" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G268" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A269" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B269" s="6">
+        <v>6005500030</v>
+      </c>
+      <c r="C269" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D269" s="4">
+        <v>10</v>
+      </c>
+      <c r="E269" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F269" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G269" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A270" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C270" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D270" s="4">
+        <v>10</v>
+      </c>
+      <c r="E270" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F270" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G270" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A271" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C271" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D271" s="4">
+        <v>10</v>
+      </c>
+      <c r="E271" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F271" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G271" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A272" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C272" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D272" s="4">
+        <v>10</v>
+      </c>
+      <c r="E272" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F272" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G272" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A273" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B273" s="6">
+        <v>326</v>
+      </c>
+      <c r="C273" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D273" s="4">
+        <v>10</v>
+      </c>
+      <c r="E273" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F273" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G273" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A274" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C274" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D274" s="4">
+        <v>10</v>
+      </c>
+      <c r="E274" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F274" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G274" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A275" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C275" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D275" s="4">
+        <v>10</v>
+      </c>
+      <c r="E275" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F275" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G275" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A276" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B276" s="6">
+        <v>4163214</v>
+      </c>
+      <c r="C276" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D276" s="4">
+        <v>10</v>
+      </c>
+      <c r="E276" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F276" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G276" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A277" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B277" s="6">
+        <v>503853</v>
+      </c>
+      <c r="C277" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D277" s="4">
+        <v>10</v>
+      </c>
+      <c r="E277" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F277" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G277" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A278" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C278" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D278" s="4">
+        <v>10</v>
+      </c>
+      <c r="E278" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F278" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G278" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A279" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C279" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D279" s="4">
+        <v>10</v>
+      </c>
+      <c r="E279" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F279" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G279" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A280" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B280" s="6">
+        <v>503852</v>
+      </c>
+      <c r="C280" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D280" s="4">
+        <v>10</v>
+      </c>
+      <c r="E280" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F280" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G280" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A281" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B281" s="6">
+        <v>550197</v>
+      </c>
+      <c r="C281" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D281" s="4">
+        <v>10</v>
+      </c>
+      <c r="E281" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F281" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G281" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A282" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C282" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D282" s="4">
+        <v>10</v>
+      </c>
+      <c r="E282" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F282" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G282" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A283" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C283" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D283" s="4">
+        <v>10</v>
+      </c>
+      <c r="E283" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F283" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G283" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A284" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C284" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D284" s="4">
+        <v>10</v>
+      </c>
+      <c r="E284" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F284" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G284" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A285" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C285" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D285" s="4">
+        <v>10</v>
+      </c>
+      <c r="E285" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F285" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G285" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A286" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C286" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D286" s="4">
+        <v>10</v>
+      </c>
+      <c r="E286" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F286" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G286" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A287" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C287" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D287" s="4">
+        <v>10</v>
+      </c>
+      <c r="E287" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F287" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G287" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A288" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C288" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D288" s="4">
+        <v>10</v>
+      </c>
+      <c r="E288" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F288" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G288" s="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A289" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C289" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D289" s="4">
+        <v>10</v>
+      </c>
+      <c r="E289" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F289" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G289" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A290" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C290" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D290" s="4">
+        <v>10</v>
+      </c>
+      <c r="E290" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F290" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G290" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A291" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C291" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D291" s="4">
+        <v>10</v>
+      </c>
+      <c r="E291" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F291" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G291" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A292" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C292" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D292" s="4">
+        <v>10</v>
+      </c>
+      <c r="E292" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F292" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G292" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A293" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C293" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D293" s="4">
+        <v>10</v>
+      </c>
+      <c r="E293" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F293" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G293" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A294" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C294" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D294" s="4">
+        <v>10</v>
+      </c>
+      <c r="E294" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F294" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G294" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A295" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C295" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D295" s="4">
+        <v>10</v>
+      </c>
+      <c r="E295" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F295" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G295" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A296" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C296" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D296" s="4">
+        <v>10</v>
+      </c>
+      <c r="E296" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F296" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G296" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A297" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C297" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D297" s="4">
+        <v>10</v>
+      </c>
+      <c r="E297" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F297" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G297" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A298" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C298" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D298" s="4">
+        <v>10</v>
+      </c>
+      <c r="E298" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F298" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G298" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A299" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B299" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C299" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D299" s="4">
+        <v>10</v>
+      </c>
+      <c r="E299" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F299" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G299" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A300" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C300" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D300" s="4">
+        <v>10</v>
+      </c>
+      <c r="E300" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F300" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G300" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A301" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C301" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D301" s="4">
+        <v>10</v>
+      </c>
+      <c r="E301" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F301" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G301" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A302" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B302" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C302" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D302" s="4">
+        <v>10</v>
+      </c>
+      <c r="E302" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F302" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G302" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A303" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D303" s="4">
+        <v>10</v>
+      </c>
+      <c r="E303" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F303" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G303" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A304" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C304" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D304" s="4">
+        <v>10</v>
+      </c>
+      <c r="E304" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F304" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G304" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A305" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C305" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" s="4">
+        <v>10</v>
+      </c>
+      <c r="E305" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F305" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G305" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A306" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C306" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D306" s="4">
+        <v>10</v>
+      </c>
+      <c r="E306" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F306" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G306" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A307" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C307" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D307" s="4">
+        <v>10</v>
+      </c>
+      <c r="E307" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F307" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G307" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A308" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C308" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D308" s="4">
+        <v>10</v>
+      </c>
+      <c r="E308" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F308" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G308" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A309" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C309" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D309" s="4">
+        <v>10</v>
+      </c>
+      <c r="E309" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F309" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G309" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A310" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C310" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D310" s="4">
+        <v>10</v>
+      </c>
+      <c r="E310" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F310" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G310" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A311" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C311" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D311" s="4">
+        <v>10</v>
+      </c>
+      <c r="E311" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F311" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G311" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A312" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B312" s="6">
+        <v>6005500030</v>
+      </c>
+      <c r="C312" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D312" s="4">
+        <v>10</v>
+      </c>
+      <c r="E312" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F312" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G312" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A313" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B313" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C313" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D313" s="4">
+        <v>10</v>
+      </c>
+      <c r="E313" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F313" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G313" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A314" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B314" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C314" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D314" s="4">
+        <v>10</v>
+      </c>
+      <c r="E314" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F314" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G314" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A315" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B315" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C315" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D315" s="4">
+        <v>10</v>
+      </c>
+      <c r="E315" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F315" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G315" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A316" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B316" s="6">
+        <v>326</v>
+      </c>
+      <c r="C316" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D316" s="4">
+        <v>10</v>
+      </c>
+      <c r="E316" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F316" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G316" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A317" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B317" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C317" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D317" s="4">
+        <v>10</v>
+      </c>
+      <c r="E317" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F317" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G317" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A318" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B318" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C318" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D318" s="4">
+        <v>10</v>
+      </c>
+      <c r="E318" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F318" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G318" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A319" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B319" s="6">
+        <v>4163214</v>
+      </c>
+      <c r="C319" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D319" s="4">
+        <v>10</v>
+      </c>
+      <c r="E319" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F319" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G319" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A320" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B320" s="6">
+        <v>503853</v>
+      </c>
+      <c r="C320" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D320" s="4">
+        <v>10</v>
+      </c>
+      <c r="E320" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F320" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G320" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A321" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B321" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C321" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D321" s="4">
+        <v>10</v>
+      </c>
+      <c r="E321" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F321" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G321" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A322" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B322" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C322" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D322" s="4">
+        <v>10</v>
+      </c>
+      <c r="E322" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F322" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G322" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A323" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B323" s="6">
+        <v>503852</v>
+      </c>
+      <c r="C323" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D323" s="4">
+        <v>10</v>
+      </c>
+      <c r="E323" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F323" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G323" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A324" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B324" s="6">
+        <v>550197</v>
+      </c>
+      <c r="C324" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D324" s="4">
+        <v>10</v>
+      </c>
+      <c r="E324" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F324" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G324" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A325" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B325" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C325" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D325" s="4">
+        <v>10</v>
+      </c>
+      <c r="E325" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F325" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G325" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A326" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B326" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C326" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D326" s="4">
+        <v>10</v>
+      </c>
+      <c r="E326" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F326" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G326" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A327" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B327" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C327" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D327" s="4">
+        <v>10</v>
+      </c>
+      <c r="E327" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F327" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G327" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A328" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B328" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C328" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D328" s="4">
+        <v>10</v>
+      </c>
+      <c r="E328" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F328" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G328" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A329" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B329" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C329" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D329" s="4">
+        <v>10</v>
+      </c>
+      <c r="E329" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F329" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G329" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A330" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C330" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D330" s="4">
+        <v>10</v>
+      </c>
+      <c r="E330" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F330" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G330" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A331" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B331" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C331" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D331" s="4">
+        <v>10</v>
+      </c>
+      <c r="E331" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F331" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G331" s="17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A332" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B332" s="6">
+        <v>503852</v>
+      </c>
+      <c r="C332" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D332" s="4">
+        <v>10</v>
+      </c>
+      <c r="E332" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F332" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G332" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A333" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B333" s="6">
+        <v>550197</v>
+      </c>
+      <c r="C333" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D333" s="4">
+        <v>10</v>
+      </c>
+      <c r="E333" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F333" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G333" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A334" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B334" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C334" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D334" s="4">
+        <v>10</v>
+      </c>
+      <c r="E334" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F334" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G334" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A335" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B335" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C335" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D335" s="4">
+        <v>10</v>
+      </c>
+      <c r="E335" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F335" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G335" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A336" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B336" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C336" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D336" s="4">
+        <v>10</v>
+      </c>
+      <c r="E336" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F336" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G336" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A337" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B337" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C337" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D337" s="4">
+        <v>10</v>
+      </c>
+      <c r="E337" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F337" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G337" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A338" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B338" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C338" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D338" s="4">
+        <v>10</v>
+      </c>
+      <c r="E338" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F338" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G338" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A339" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B339" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C339" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D339" s="4">
+        <v>10</v>
+      </c>
+      <c r="E339" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F339" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G339" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A340" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B340" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C340" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D340" s="4">
+        <v>10</v>
+      </c>
+      <c r="E340" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F340" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G340" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A341" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B341" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C341" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D341" s="4">
+        <v>10</v>
+      </c>
+      <c r="E341" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F341" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G341" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A342" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B342" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C342" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D342" s="4">
+        <v>10</v>
+      </c>
+      <c r="E342" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F342" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G342" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A343" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B343" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C343" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D343" s="4">
+        <v>10</v>
+      </c>
+      <c r="E343" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F343" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G343" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A344" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B344" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C344" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D344" s="4">
+        <v>10</v>
+      </c>
+      <c r="E344" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F344" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G344" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A345" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B345" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C345" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D345" s="4">
+        <v>10</v>
+      </c>
+      <c r="E345" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F345" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G345" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A346" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C346" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D346" s="4">
+        <v>10</v>
+      </c>
+      <c r="E346" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F346" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G346" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A347" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C347" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D347" s="4">
+        <v>10</v>
+      </c>
+      <c r="E347" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F347" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G347" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A348" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B348" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C348" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D348" s="4">
+        <v>10</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F348" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G348" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A349" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B349" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C349" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D349" s="4">
+        <v>10</v>
+      </c>
+      <c r="E349" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F349" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G349" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A350" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C350" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D350" s="4">
+        <v>10</v>
+      </c>
+      <c r="E350" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F350" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G350" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A351" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B351" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C351" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D351" s="4">
+        <v>10</v>
+      </c>
+      <c r="E351" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F351" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G351" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A352" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B352" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C352" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D352" s="4">
+        <v>10</v>
+      </c>
+      <c r="E352" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F352" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G352" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A353" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C353" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D353" s="4">
+        <v>10</v>
+      </c>
+      <c r="E353" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F353" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G353" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A354" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B354" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C354" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D354" s="4">
+        <v>10</v>
+      </c>
+      <c r="E354" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F354" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G354" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A355" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B355" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C355" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D355" s="4">
+        <v>10</v>
+      </c>
+      <c r="E355" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F355" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G355" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A356" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C356" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D356" s="4">
+        <v>10</v>
+      </c>
+      <c r="E356" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F356" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G356" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A357" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C357" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D357" s="4">
+        <v>10</v>
+      </c>
+      <c r="E357" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F357" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G357" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A358" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B358" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C358" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D358" s="4">
+        <v>10</v>
+      </c>
+      <c r="E358" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F358" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G358" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A359" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B359" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C359" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D359" s="4">
+        <v>10</v>
+      </c>
+      <c r="E359" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F359" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G359" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A360" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B360" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C360" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D360" s="4">
+        <v>10</v>
+      </c>
+      <c r="E360" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F360" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G360" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A361" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B361" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C361" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D361" s="4">
+        <v>10</v>
+      </c>
+      <c r="E361" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F361" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G361" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A362" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B362" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C362" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D362" s="4">
+        <v>10</v>
+      </c>
+      <c r="E362" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F362" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G362" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A363" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B363" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C363" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D363" s="4">
+        <v>10</v>
+      </c>
+      <c r="E363" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F363" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G363" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A364" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B364" s="6">
+        <v>6005500030</v>
+      </c>
+      <c r="C364" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D364" s="4">
+        <v>10</v>
+      </c>
+      <c r="E364" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F364" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G364" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A365" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B365" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C365" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D365" s="4">
+        <v>10</v>
+      </c>
+      <c r="E365" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F365" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G365" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A366" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B366" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C366" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D366" s="4">
+        <v>10</v>
+      </c>
+      <c r="E366" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F366" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G366" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A367" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B367" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C367" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D367" s="4">
+        <v>10</v>
+      </c>
+      <c r="E367" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F367" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G367" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A368" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B368" s="6">
+        <v>326</v>
+      </c>
+      <c r="C368" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D368" s="4">
+        <v>10</v>
+      </c>
+      <c r="E368" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F368" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G368" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A369" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B369" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C369" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D369" s="4">
+        <v>10</v>
+      </c>
+      <c r="E369" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F369" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G369" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A370" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B370" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C370" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D370" s="4">
+        <v>10</v>
+      </c>
+      <c r="E370" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F370" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G370" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A371" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B371" s="6">
+        <v>4163214</v>
+      </c>
+      <c r="C371" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D371" s="4">
+        <v>10</v>
+      </c>
+      <c r="E371" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F371" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G371" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A372" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B372" s="6">
+        <v>503853</v>
+      </c>
+      <c r="C372" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D372" s="4">
+        <v>10</v>
+      </c>
+      <c r="E372" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F372" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G372" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A373" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B373" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C373" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D373" s="4">
+        <v>10</v>
+      </c>
+      <c r="E373" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F373" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G373" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A374" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B374" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C374" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D374" s="4">
+        <v>10</v>
+      </c>
+      <c r="E374" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F374" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G374" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A375" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B375" s="6">
+        <v>503852</v>
+      </c>
+      <c r="C375" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D375" s="4">
+        <v>10</v>
+      </c>
+      <c r="E375" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F375" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G375" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A376" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B376" s="6">
+        <v>550197</v>
+      </c>
+      <c r="C376" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D376" s="4">
+        <v>10</v>
+      </c>
+      <c r="E376" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F376" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G376" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A377" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B377" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C377" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D377" s="4">
+        <v>10</v>
+      </c>
+      <c r="E377" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F377" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G377" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A378" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B378" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C378" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D378" s="4">
+        <v>10</v>
+      </c>
+      <c r="E378" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F378" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G378" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A379" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B379" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C379" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D379" s="4">
+        <v>10</v>
+      </c>
+      <c r="E379" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F379" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G379" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A380" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C380" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D380" s="4">
+        <v>10</v>
+      </c>
+      <c r="E380" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F380" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G380" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A381" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C381" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D381" s="4">
+        <v>10</v>
+      </c>
+      <c r="E381" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F381" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G381" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A382" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B382" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C382" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D382" s="4">
+        <v>10</v>
+      </c>
+      <c r="E382" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F382" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G382" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A383" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C383" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D383" s="4">
+        <v>10</v>
+      </c>
+      <c r="E383" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F383" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G383" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A384" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B384" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D384" s="4">
+        <v>15</v>
+      </c>
+      <c r="E384" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F384" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G384" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A385" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B385" s="4">
+        <v>90407219</v>
+      </c>
+      <c r="C385" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D385" s="4">
+        <v>15</v>
+      </c>
+      <c r="E385" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F385" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G385" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A386" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B386" s="4">
+        <v>6410419</v>
+      </c>
+      <c r="C386" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D386" s="4">
+        <v>15</v>
+      </c>
+      <c r="E386" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F386" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G386" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A387" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B387" s="6">
+        <v>6414810</v>
+      </c>
+      <c r="C387" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D387" s="4">
+        <v>15</v>
+      </c>
+      <c r="E387" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F387" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G387" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A388" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B388" s="4">
+        <v>42411608</v>
+      </c>
+      <c r="C388" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D388" s="4">
+        <v>15</v>
+      </c>
+      <c r="E388" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F388" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G388" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A389" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B389" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C389" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D389" s="4">
+        <v>15</v>
+      </c>
+      <c r="E389" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F389" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G389" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A390" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B390" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C390" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D390" s="4">
+        <v>15</v>
+      </c>
+      <c r="E390" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F390" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G390" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A391" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B391" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C391" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D391" s="4">
+        <v>15</v>
+      </c>
+      <c r="E391" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F391" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G391" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A392" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B392" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C392" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D392" s="4">
+        <v>15</v>
+      </c>
+      <c r="E392" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F392" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G392" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A393" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B393" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C393" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D393" s="4">
+        <v>15</v>
+      </c>
+      <c r="E393" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F393" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G393" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A394" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B394" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C394" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D394" s="4">
+        <v>15</v>
+      </c>
+      <c r="E394" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F394" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G394" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A395" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B395" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C395" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D395" s="4">
+        <v>15</v>
+      </c>
+      <c r="E395" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F395" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G395" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A396" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B396" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C396" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D396" s="4">
+        <v>15</v>
+      </c>
+      <c r="E396" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F396" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G396" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A397" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B397" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C397" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D397" s="4">
+        <v>15</v>
+      </c>
+      <c r="E397" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F397" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G397" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A398" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B398" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C398" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D398" s="4">
+        <v>15</v>
+      </c>
+      <c r="E398" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F398" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G398" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A399" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B399" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C399" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D399" s="4">
+        <v>15</v>
+      </c>
+      <c r="E399" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F399" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G399" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A400" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B400" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C400" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D400" s="4">
+        <v>15</v>
+      </c>
+      <c r="E400" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F400" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G400" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A401" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B401" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C401" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D401" s="4">
+        <v>15</v>
+      </c>
+      <c r="E401" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F401" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G401" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A402" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B402" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C402" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D402" s="4">
+        <v>15</v>
+      </c>
+      <c r="E402" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F402" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G402" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A403" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B403" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C403" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D403" s="4">
+        <v>15</v>
+      </c>
+      <c r="E403" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F403" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G403" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A404" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B404" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C404" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D404" s="4">
+        <v>15</v>
+      </c>
+      <c r="E404" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F404" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G404" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A405" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B405" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C405" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D405" s="4">
+        <v>15</v>
+      </c>
+      <c r="E405" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F405" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G405" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A406" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C406" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D406" s="4">
+        <v>15</v>
+      </c>
+      <c r="E406" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F406" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G406" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A407" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B407" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C407" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D407" s="4">
+        <v>15</v>
+      </c>
+      <c r="E407" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F407" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G407" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A408" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B408" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C408" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D408" s="4">
+        <v>15</v>
+      </c>
+      <c r="E408" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F408" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G408" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A409" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B409" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C409" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D409" s="4">
+        <v>15</v>
+      </c>
+      <c r="E409" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F409" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G409" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A410" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B410" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C410" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D410" s="4">
+        <v>15</v>
+      </c>
+      <c r="E410" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F410" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G410" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A411" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B411" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C411" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D411" s="4">
+        <v>15</v>
+      </c>
+      <c r="E411" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F411" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G411" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A412" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B412" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C412" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D412" s="4">
+        <v>15</v>
+      </c>
+      <c r="E412" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F412" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G412" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A413" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B413" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C413" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D413" s="4">
+        <v>15</v>
+      </c>
+      <c r="E413" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F413" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G413" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A414" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B414" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C414" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D414" s="4">
+        <v>15</v>
+      </c>
+      <c r="E414" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F414" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G414" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A415" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B415" s="6">
+        <v>6005500030</v>
+      </c>
+      <c r="C415" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D415" s="4">
+        <v>15</v>
+      </c>
+      <c r="E415" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F415" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G415" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A416" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B416" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C416" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D416" s="4">
+        <v>15</v>
+      </c>
+      <c r="E416" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F416" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G416" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A417" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B417" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C417" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D417" s="4">
+        <v>15</v>
+      </c>
+      <c r="E417" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F417" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G417" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A418" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B418" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C418" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D418" s="4">
+        <v>15</v>
+      </c>
+      <c r="E418" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F418" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G418" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A419" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B419" s="6">
+        <v>326</v>
+      </c>
+      <c r="C419" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D419" s="4">
+        <v>15</v>
+      </c>
+      <c r="E419" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F419" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G419" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A420" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B420" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C420" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D420" s="4">
+        <v>15</v>
+      </c>
+      <c r="E420" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F420" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G420" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A421" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B421" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C421" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D421" s="4">
+        <v>15</v>
+      </c>
+      <c r="E421" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F421" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G421" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A422" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B422" s="6">
+        <v>4163214</v>
+      </c>
+      <c r="C422" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D422" s="4">
+        <v>15</v>
+      </c>
+      <c r="E422" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F422" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G422" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A423" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B423" s="6">
+        <v>503853</v>
+      </c>
+      <c r="C423" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D423" s="4">
+        <v>15</v>
+      </c>
+      <c r="E423" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F423" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G423" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A424" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B424" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C424" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D424" s="4">
+        <v>15</v>
+      </c>
+      <c r="E424" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F424" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G424" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A425" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B425" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C425" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D425" s="4">
+        <v>15</v>
+      </c>
+      <c r="E425" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F425" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G425" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A426" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B426" s="6">
+        <v>503852</v>
+      </c>
+      <c r="C426" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D426" s="4">
+        <v>15</v>
+      </c>
+      <c r="E426" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F426" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G426" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A427" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B427" s="6">
+        <v>550197</v>
+      </c>
+      <c r="C427" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D427" s="4">
+        <v>15</v>
+      </c>
+      <c r="E427" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F427" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G427" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A428" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B428" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C428" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D428" s="4">
+        <v>15</v>
+      </c>
+      <c r="E428" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F428" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G428" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A429" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B429" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C429" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D429" s="4">
+        <v>15</v>
+      </c>
+      <c r="E429" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F429" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G429" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A430" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B430" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C430" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D430" s="4">
+        <v>15</v>
+      </c>
+      <c r="E430" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F430" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G430" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A431" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B431" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C431" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D431" s="4">
+        <v>15</v>
+      </c>
+      <c r="E431" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F431" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G431" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A432" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B432" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C432" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D432" s="4">
+        <v>15</v>
+      </c>
+      <c r="E432" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F432" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G432" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A433" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B433" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C433" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D433" s="4">
+        <v>15</v>
+      </c>
+      <c r="E433" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F433" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G433" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A434" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B434" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C434" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D434" s="4">
+        <v>15</v>
+      </c>
+      <c r="E434" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F434" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G434" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A435" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B435" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C435" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D435" s="4">
+        <v>15</v>
+      </c>
+      <c r="E435" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F435" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G435" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A436" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B436" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C436" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D436" s="4">
+        <v>15</v>
+      </c>
+      <c r="E436" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F436" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G436" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A437" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B437" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C437" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D437" s="4">
+        <v>15</v>
+      </c>
+      <c r="E437" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F437" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G437" s="17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A438" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B438" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C438" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D438" s="4">
+        <v>15</v>
+      </c>
+      <c r="E438" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F438" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G438" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A439" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B439" s="4">
+        <v>90407219</v>
+      </c>
+      <c r="C439" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D439" s="4">
+        <v>15</v>
+      </c>
+      <c r="E439" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F439" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G439" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A440" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B440" s="4">
+        <v>6410419</v>
+      </c>
+      <c r="C440" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D440" s="4">
+        <v>15</v>
+      </c>
+      <c r="E440" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F440" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G440" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A441" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B441" s="6">
+        <v>6414810</v>
+      </c>
+      <c r="C441" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D441" s="4">
+        <v>15</v>
+      </c>
+      <c r="E441" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F441" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G441" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A442" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B442" s="4">
+        <v>42411608</v>
+      </c>
+      <c r="C442" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D442" s="4">
+        <v>15</v>
+      </c>
+      <c r="E442" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F442" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G442" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A443" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B443" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C443" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D443" s="4">
+        <v>15</v>
+      </c>
+      <c r="E443" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F443" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G443" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A444" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B444" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C444" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D444" s="4">
+        <v>15</v>
+      </c>
+      <c r="E444" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F444" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G444" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A445" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B445" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C445" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D445" s="4">
+        <v>15</v>
+      </c>
+      <c r="E445" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F445" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G445" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A446" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B446" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C446" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D446" s="4">
+        <v>15</v>
+      </c>
+      <c r="E446" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F446" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G446" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A447" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B447" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C447" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D447" s="4">
+        <v>15</v>
+      </c>
+      <c r="E447" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F447" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G447" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A448" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B448" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C448" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D448" s="4">
+        <v>15</v>
+      </c>
+      <c r="E448" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F448" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G448" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A449" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B449" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C449" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D449" s="4">
+        <v>15</v>
+      </c>
+      <c r="E449" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F449" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G449" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A450" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B450" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C450" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D450" s="4">
+        <v>15</v>
+      </c>
+      <c r="E450" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F450" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G450" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A451" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B451" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C451" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D451" s="4">
+        <v>15</v>
+      </c>
+      <c r="E451" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F451" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G451" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A452" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B452" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C452" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D452" s="4">
+        <v>15</v>
+      </c>
+      <c r="E452" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F452" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G452" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A453" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B453" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C453" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D453" s="4">
+        <v>15</v>
+      </c>
+      <c r="E453" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F453" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G453" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A454" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B454" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C454" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D454" s="4">
+        <v>15</v>
+      </c>
+      <c r="E454" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F454" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G454" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A455" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B455" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C455" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D455" s="4">
+        <v>15</v>
+      </c>
+      <c r="E455" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F455" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G455" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A456" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B456" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C456" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D456" s="4">
+        <v>15</v>
+      </c>
+      <c r="E456" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F456" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G456" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A457" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B457" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C457" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D457" s="4">
+        <v>15</v>
+      </c>
+      <c r="E457" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F457" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G457" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A458" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B458" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C458" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D458" s="4">
+        <v>15</v>
+      </c>
+      <c r="E458" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F458" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G458" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A459" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B459" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C459" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D459" s="4">
+        <v>15</v>
+      </c>
+      <c r="E459" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F459" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G459" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A460" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B460" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C460" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D460" s="4">
+        <v>15</v>
+      </c>
+      <c r="E460" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F460" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G460" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A461" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B461" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C461" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D461" s="4">
+        <v>15</v>
+      </c>
+      <c r="E461" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F461" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G461" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A462" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B462" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C462" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D462" s="4">
+        <v>15</v>
+      </c>
+      <c r="E462" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F462" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G462" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A463" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B463" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C463" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D463" s="4">
+        <v>15</v>
+      </c>
+      <c r="E463" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F463" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G463" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A464" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B464" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C464" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D464" s="4">
+        <v>15</v>
+      </c>
+      <c r="E464" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F464" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G464" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A465" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B465" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C465" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D465" s="4">
+        <v>15</v>
+      </c>
+      <c r="E465" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F465" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G465" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A466" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B466" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C466" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D466" s="4">
+        <v>15</v>
+      </c>
+      <c r="E466" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F466" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G466" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A467" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B467" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C467" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D467" s="4">
+        <v>15</v>
+      </c>
+      <c r="E467" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F467" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G467" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A468" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B468" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C468" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D468" s="4">
+        <v>15</v>
+      </c>
+      <c r="E468" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F468" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G468" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A469" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B469" s="6">
+        <v>6005500030</v>
+      </c>
+      <c r="C469" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D469" s="4">
+        <v>15</v>
+      </c>
+      <c r="E469" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F469" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G469" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A470" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B470" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C470" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D470" s="4">
+        <v>15</v>
+      </c>
+      <c r="E470" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F470" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G470" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A471" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B471" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C471" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D471" s="4">
+        <v>15</v>
+      </c>
+      <c r="E471" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F471" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G471" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A472" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B472" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C472" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D472" s="4">
+        <v>15</v>
+      </c>
+      <c r="E472" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F472" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G472" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A473" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B473" s="6">
+        <v>326</v>
+      </c>
+      <c r="C473" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D473" s="4">
+        <v>15</v>
+      </c>
+      <c r="E473" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F473" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G473" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A474" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B474" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C474" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D474" s="4">
+        <v>15</v>
+      </c>
+      <c r="E474" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F474" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G474" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A475" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B475" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C475" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D475" s="4">
+        <v>15</v>
+      </c>
+      <c r="E475" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F475" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G475" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A476" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B476" s="6">
+        <v>4163214</v>
+      </c>
+      <c r="C476" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D476" s="4">
+        <v>15</v>
+      </c>
+      <c r="E476" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F476" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G476" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A477" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B477" s="6">
+        <v>503853</v>
+      </c>
+      <c r="C477" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D477" s="4">
+        <v>15</v>
+      </c>
+      <c r="E477" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F477" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G477" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A478" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B478" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C478" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D478" s="4">
+        <v>15</v>
+      </c>
+      <c r="E478" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F478" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G478" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A479" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B479" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C479" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D479" s="4">
+        <v>15</v>
+      </c>
+      <c r="E479" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F479" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G479" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A480" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B480" s="6">
+        <v>503852</v>
+      </c>
+      <c r="C480" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D480" s="4">
+        <v>15</v>
+      </c>
+      <c r="E480" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F480" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G480" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A481" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B481" s="6">
+        <v>550197</v>
+      </c>
+      <c r="C481" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D481" s="4">
+        <v>15</v>
+      </c>
+      <c r="E481" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F481" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G481" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A482" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B482" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C482" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D482" s="4">
+        <v>15</v>
+      </c>
+      <c r="E482" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F482" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G482" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A483" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B483" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C483" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D483" s="4">
+        <v>15</v>
+      </c>
+      <c r="E483" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F483" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G483" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A484" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B484" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C484" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D484" s="4">
+        <v>15</v>
+      </c>
+      <c r="E484" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F484" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G484" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A485" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B485" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C485" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D485" s="4">
+        <v>15</v>
+      </c>
+      <c r="E485" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F485" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G485" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A486" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B486" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C486" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D486" s="4">
+        <v>15</v>
+      </c>
+      <c r="E486" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F486" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G486" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A487" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B487" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C487" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D487" s="4">
+        <v>15</v>
+      </c>
+      <c r="E487" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F487" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G487" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A488" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B488" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C488" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D488" s="4">
+        <v>15</v>
+      </c>
+      <c r="E488" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F488" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G488" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A489" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B489" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C489" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D489" s="4">
+        <v>15</v>
+      </c>
+      <c r="E489" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F489" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G489" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A490" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B490" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C490" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D490" s="4">
+        <v>15</v>
+      </c>
+      <c r="E490" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F490" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G490" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A491" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B491" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C491" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D491" s="4">
+        <v>15</v>
+      </c>
+      <c r="E491" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F491" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G491" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A492" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B492" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C492" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D492" s="4">
+        <v>15</v>
+      </c>
+      <c r="E492" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F492" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G492" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A493" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B493" s="4">
+        <v>90407219</v>
+      </c>
+      <c r="C493" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D493" s="4">
+        <v>15</v>
+      </c>
+      <c r="E493" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F493" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G493" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A494" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B494" s="4">
+        <v>6410419</v>
+      </c>
+      <c r="C494" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D494" s="4">
+        <v>15</v>
+      </c>
+      <c r="E494" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F494" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G494" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A495" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B495" s="6">
+        <v>6414810</v>
+      </c>
+      <c r="C495" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D495" s="4">
+        <v>15</v>
+      </c>
+      <c r="E495" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F495" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G495" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A496" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B496" s="4">
+        <v>42411608</v>
+      </c>
+      <c r="C496" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D496" s="4">
+        <v>15</v>
+      </c>
+      <c r="E496" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F496" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G496" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A497" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B497" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C497" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D497" s="4">
+        <v>15</v>
+      </c>
+      <c r="E497" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F497" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G497" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="498" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A498" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B498" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C498" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D498" s="4">
+        <v>15</v>
+      </c>
+      <c r="E498" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F498" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G498" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A499" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B499" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C499" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D499" s="4">
+        <v>15</v>
+      </c>
+      <c r="E499" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F499" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G499" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="500" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A500" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B500" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C500" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D500" s="4">
+        <v>15</v>
+      </c>
+      <c r="E500" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F500" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G500" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A501" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B501" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C501" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D501" s="4">
+        <v>15</v>
+      </c>
+      <c r="E501" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F501" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G501" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A502" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B502" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C502" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D502" s="4">
+        <v>15</v>
+      </c>
+      <c r="E502" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F502" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G502" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A503" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B503" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C503" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D503" s="4">
+        <v>15</v>
+      </c>
+      <c r="E503" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F503" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G503" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A504" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B504" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C504" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D504" s="4">
+        <v>15</v>
+      </c>
+      <c r="E504" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F504" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G504" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="505" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A505" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B505" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C505" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D505" s="4">
+        <v>15</v>
+      </c>
+      <c r="E505" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F505" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G505" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="506" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A506" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B506" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C506" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D506" s="4">
+        <v>15</v>
+      </c>
+      <c r="E506" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F506" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G506" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="507" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A507" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B507" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C507" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D507" s="4">
+        <v>15</v>
+      </c>
+      <c r="E507" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F507" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G507" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="508" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A508" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B508" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C508" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D508" s="4">
+        <v>15</v>
+      </c>
+      <c r="E508" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F508" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G508" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="509" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A509" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B509" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C509" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D509" s="4">
+        <v>15</v>
+      </c>
+      <c r="E509" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F509" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G509" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="510" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A510" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B510" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C510" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D510" s="4">
+        <v>15</v>
+      </c>
+      <c r="E510" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F510" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G510" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="511" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A511" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B511" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C511" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D511" s="4">
+        <v>15</v>
+      </c>
+      <c r="E511" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F511" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G511" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="512" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A512" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B512" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C512" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D512" s="4">
+        <v>15</v>
+      </c>
+      <c r="E512" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F512" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G512" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="513" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A513" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B513" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C513" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D513" s="4">
+        <v>15</v>
+      </c>
+      <c r="E513" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F513" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G513" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="514" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A514" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B514" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C514" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D514" s="4">
+        <v>15</v>
+      </c>
+      <c r="E514" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F514" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G514" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="515" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A515" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B515" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C515" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D515" s="4">
+        <v>15</v>
+      </c>
+      <c r="E515" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F515" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G515" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="516" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A516" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B516" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C516" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D516" s="4">
+        <v>15</v>
+      </c>
+      <c r="E516" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F516" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G516" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="517" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A517" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B517" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C517" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D517" s="4">
+        <v>15</v>
+      </c>
+      <c r="E517" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F517" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G517" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="518" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A518" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B518" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C518" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D518" s="4">
+        <v>15</v>
+      </c>
+      <c r="E518" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F518" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G518" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="519" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A519" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B519" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C519" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D519" s="4">
+        <v>15</v>
+      </c>
+      <c r="E519" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F519" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G519" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="520" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A520" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B520" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C520" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D520" s="4">
+        <v>15</v>
+      </c>
+      <c r="E520" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F520" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G520" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="521" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A521" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B521" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C521" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D521" s="4">
+        <v>15</v>
+      </c>
+      <c r="E521" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F521" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G521" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="522" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A522" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B522" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C522" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D522" s="4">
+        <v>15</v>
+      </c>
+      <c r="E522" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F522" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G522" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="523" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A523" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B523" s="6">
+        <v>6005500030</v>
+      </c>
+      <c r="C523" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D523" s="4">
+        <v>15</v>
+      </c>
+      <c r="E523" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F523" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G523" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="524" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A524" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B524" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C524" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D524" s="4">
+        <v>15</v>
+      </c>
+      <c r="E524" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F524" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G524" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="525" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A525" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B525" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C525" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D525" s="4">
+        <v>15</v>
+      </c>
+      <c r="E525" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F525" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G525" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="526" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A526" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B526" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C526" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D526" s="4">
+        <v>15</v>
+      </c>
+      <c r="E526" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F526" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G526" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="527" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A527" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B527" s="6">
+        <v>326</v>
+      </c>
+      <c r="C527" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D527" s="4">
+        <v>15</v>
+      </c>
+      <c r="E527" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F527" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G527" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="528" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A528" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B528" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C528" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D528" s="4">
+        <v>15</v>
+      </c>
+      <c r="E528" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F528" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G528" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="529" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A529" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B529" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C529" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D529" s="4">
+        <v>15</v>
+      </c>
+      <c r="E529" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F529" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G529" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="530" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A530" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B530" s="6">
+        <v>4163214</v>
+      </c>
+      <c r="C530" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D530" s="4">
+        <v>15</v>
+      </c>
+      <c r="E530" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F530" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G530" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="531" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A531" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B531" s="6">
+        <v>503853</v>
+      </c>
+      <c r="C531" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D531" s="4">
+        <v>15</v>
+      </c>
+      <c r="E531" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F531" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G531" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="532" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A532" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B532" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C532" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D532" s="4">
+        <v>15</v>
+      </c>
+      <c r="E532" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F532" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G532" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="533" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A533" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B533" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C533" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D533" s="4">
+        <v>15</v>
+      </c>
+      <c r="E533" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F533" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G533" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="534" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A534" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B534" s="6">
+        <v>503852</v>
+      </c>
+      <c r="C534" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D534" s="4">
+        <v>15</v>
+      </c>
+      <c r="E534" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F534" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G534" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="535" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A535" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B535" s="6">
+        <v>550197</v>
+      </c>
+      <c r="C535" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D535" s="4">
+        <v>15</v>
+      </c>
+      <c r="E535" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F535" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G535" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="536" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A536" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B536" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C536" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D536" s="4">
+        <v>15</v>
+      </c>
+      <c r="E536" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F536" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G536" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="537" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A537" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B537" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C537" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D537" s="4">
+        <v>15</v>
+      </c>
+      <c r="E537" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F537" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G537" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="538" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A538" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B538" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C538" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D538" s="4">
+        <v>15</v>
+      </c>
+      <c r="E538" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F538" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G538" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="539" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A539" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B539" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C539" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D539" s="4">
+        <v>15</v>
+      </c>
+      <c r="E539" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F539" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G539" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A540" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B540" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C540" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D540" s="4">
+        <v>15</v>
+      </c>
+      <c r="E540" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F540" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G540" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A541" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B541" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C541" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D541" s="4">
+        <v>15</v>
+      </c>
+      <c r="E541" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F541" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G541" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A542" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B542" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C542" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D542" s="4">
+        <v>15</v>
+      </c>
+      <c r="E542" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F542" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G542" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A543" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B543" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C543" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D543" s="4">
+        <v>15</v>
+      </c>
+      <c r="E543" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F543" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G543" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A544" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B544" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C544" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D544" s="4">
+        <v>15</v>
+      </c>
+      <c r="E544" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F544" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G544" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A545" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B545" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C545" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D545" s="4">
+        <v>15</v>
+      </c>
+      <c r="E545" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F545" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G545" s="17">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A546" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B546" s="4">
+        <v>6410419</v>
+      </c>
+      <c r="C546" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D546" s="4">
+        <v>15</v>
+      </c>
+      <c r="E546" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F546" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G546" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A547" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B547" s="6">
+        <v>6414810</v>
+      </c>
+      <c r="C547" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D547" s="4">
+        <v>15</v>
+      </c>
+      <c r="E547" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F547" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G547" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A548" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B548" s="4">
+        <v>42411608</v>
+      </c>
+      <c r="C548" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D548" s="4">
+        <v>15</v>
+      </c>
+      <c r="E548" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F548" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G548" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A549" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B549" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C549" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D549" s="4">
+        <v>15</v>
+      </c>
+      <c r="E549" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F549" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G549" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A550" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B550" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C550" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D550" s="4">
+        <v>15</v>
+      </c>
+      <c r="E550" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F550" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G550" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A551" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B551" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C551" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D551" s="4">
+        <v>15</v>
+      </c>
+      <c r="E551" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F551" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G551" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A552" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B552" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C552" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D552" s="4">
+        <v>15</v>
+      </c>
+      <c r="E552" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F552" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G552" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A553" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B553" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C553" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D553" s="4">
+        <v>15</v>
+      </c>
+      <c r="E553" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F553" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G553" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A554" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B554" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C554" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D554" s="4">
+        <v>15</v>
+      </c>
+      <c r="E554" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F554" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G554" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="555" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A555" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B555" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C555" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D555" s="4">
+        <v>15</v>
+      </c>
+      <c r="E555" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F555" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G555" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="556" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A556" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B556" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C556" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D556" s="4">
+        <v>15</v>
+      </c>
+      <c r="E556" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F556" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G556" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="557" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A557" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B557" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C557" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D557" s="4">
+        <v>15</v>
+      </c>
+      <c r="E557" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F557" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G557" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="558" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A558" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B558" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C558" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D558" s="4">
+        <v>15</v>
+      </c>
+      <c r="E558" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F558" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G558" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="559" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A559" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B559" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C559" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D559" s="4">
+        <v>15</v>
+      </c>
+      <c r="E559" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F559" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G559" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="560" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A560" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B560" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C560" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D560" s="4">
+        <v>15</v>
+      </c>
+      <c r="E560" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F560" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G560" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="561" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A561" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B561" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C561" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D561" s="4">
+        <v>15</v>
+      </c>
+      <c r="E561" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F561" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G561" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="562" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A562" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B562" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C562" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D562" s="4">
+        <v>15</v>
+      </c>
+      <c r="E562" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F562" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="G562" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="563" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A563" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B563" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C563" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D563" s="4">
+        <v>15</v>
+      </c>
+      <c r="E563" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F563" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G563" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="564" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A564" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B564" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C564" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D564" s="4">
+        <v>15</v>
+      </c>
+      <c r="E564" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F564" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G564" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="565" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A565" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B565" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C565" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D565" s="4">
+        <v>15</v>
+      </c>
+      <c r="E565" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F565" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G565" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="566" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A566" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B566" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C566" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D566" s="4">
+        <v>15</v>
+      </c>
+      <c r="E566" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F566" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G566" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="567" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A567" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B567" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C567" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D567" s="4">
+        <v>15</v>
+      </c>
+      <c r="E567" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F567" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G567" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="568" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A568" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B568" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C568" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D568" s="4">
+        <v>15</v>
+      </c>
+      <c r="E568" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F568" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G568" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="569" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A569" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B569" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C569" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D569" s="4">
+        <v>15</v>
+      </c>
+      <c r="E569" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F569" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G569" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="570" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A570" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B570" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C570" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D570" s="4">
+        <v>15</v>
+      </c>
+      <c r="E570" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F570" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G570" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="571" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A571" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B571" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C571" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D571" s="4">
+        <v>15</v>
+      </c>
+      <c r="E571" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F571" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G571" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="572" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A572" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B572" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C572" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D572" s="4">
+        <v>15</v>
+      </c>
+      <c r="E572" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F572" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G572" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="573" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A573" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B573" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C573" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D573" s="4">
+        <v>15</v>
+      </c>
+      <c r="E573" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F573" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G573" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="574" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A574" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B574" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C574" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D574" s="4">
+        <v>15</v>
+      </c>
+      <c r="E574" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F574" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G574" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="575" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A575" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B575" s="6">
+        <v>6005500030</v>
+      </c>
+      <c r="C575" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D575" s="4">
+        <v>15</v>
+      </c>
+      <c r="E575" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F575" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G575" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="576" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A576" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B576" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C576" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D576" s="4">
+        <v>15</v>
+      </c>
+      <c r="E576" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F576" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G576" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="577" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A577" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B577" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C577" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D577" s="4">
+        <v>15</v>
+      </c>
+      <c r="E577" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F577" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G577" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="578" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A578" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B578" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C578" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D578" s="4">
+        <v>15</v>
+      </c>
+      <c r="E578" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F578" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G578" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="579" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A579" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B579" s="6">
+        <v>326</v>
+      </c>
+      <c r="C579" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D579" s="4">
+        <v>15</v>
+      </c>
+      <c r="E579" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F579" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G579" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="580" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A580" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B580" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C580" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D580" s="4">
+        <v>15</v>
+      </c>
+      <c r="E580" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F580" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G580" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A581" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B581" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C581" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D581" s="4">
+        <v>15</v>
+      </c>
+      <c r="E581" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F581" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G581" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A582" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B582" s="6">
+        <v>4163214</v>
+      </c>
+      <c r="C582" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D582" s="4">
+        <v>15</v>
+      </c>
+      <c r="E582" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F582" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G582" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="583" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A583" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B583" s="6">
+        <v>503853</v>
+      </c>
+      <c r="C583" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D583" s="4">
+        <v>15</v>
+      </c>
+      <c r="E583" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F583" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G583" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="584" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A584" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B584" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C584" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D584" s="4">
+        <v>15</v>
+      </c>
+      <c r="E584" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F584" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G584" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="585" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A585" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B585" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C585" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D585" s="4">
+        <v>15</v>
+      </c>
+      <c r="E585" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F585" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G585" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="586" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A586" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B586" s="6">
+        <v>503852</v>
+      </c>
+      <c r="C586" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D586" s="4">
+        <v>15</v>
+      </c>
+      <c r="E586" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F586" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G586" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="587" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A587" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B587" s="6">
+        <v>550197</v>
+      </c>
+      <c r="C587" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D587" s="4">
+        <v>15</v>
+      </c>
+      <c r="E587" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F587" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G587" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="588" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A588" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B588" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C588" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D588" s="4">
+        <v>15</v>
+      </c>
+      <c r="E588" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F588" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G588" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="589" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A589" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B589" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C589" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D589" s="4">
+        <v>15</v>
+      </c>
+      <c r="E589" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F589" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G589" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="590" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A590" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B590" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C590" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D590" s="4">
+        <v>15</v>
+      </c>
+      <c r="E590" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F590" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G590" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="591" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A591" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B591" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C591" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D591" s="4">
+        <v>15</v>
+      </c>
+      <c r="E591" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F591" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G591" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="592" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A592" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B592" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C592" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D592" s="4">
+        <v>15</v>
+      </c>
+      <c r="E592" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F592" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G592" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="593" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A593" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B593" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C593" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D593" s="4">
+        <v>15</v>
+      </c>
+      <c r="E593" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F593" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G593" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="594" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A594" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B594" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C594" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D594" s="4">
+        <v>15</v>
+      </c>
+      <c r="E594" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F594" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G594" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="595" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A595" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B595" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C595" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D595" s="4">
+        <v>15</v>
+      </c>
+      <c r="E595" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F595" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G595" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="596" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A596" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B596" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C596" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D596" s="4">
+        <v>15</v>
+      </c>
+      <c r="E596" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F596" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G596" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="597" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A597" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B597" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C597" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D597" s="4">
+        <v>15</v>
+      </c>
+      <c r="E597" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F597" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G597" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="598" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A598" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B598" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C598" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D598" s="4">
+        <v>15</v>
+      </c>
+      <c r="E598" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F598" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G598" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="599" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A599" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B599" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C599" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D599" s="4">
+        <v>15</v>
+      </c>
+      <c r="E599" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="F599" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G599" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="600" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A600" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B600" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C600" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D600" s="4">
+        <v>15</v>
+      </c>
+      <c r="E600" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F600" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="G600" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="601" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A601" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B601" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C601" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D601" s="4">
+        <v>15</v>
+      </c>
+      <c r="E601" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F601" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G601" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="602" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A602" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B602" s="6">
+        <v>6005500030</v>
+      </c>
+      <c r="C602" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D602" s="4">
+        <v>15</v>
+      </c>
+      <c r="E602" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F602" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G602" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="603" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A603" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B603" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C603" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D603" s="4">
+        <v>15</v>
+      </c>
+      <c r="E603" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F603" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G603" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="604" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A604" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B604" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C604" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D604" s="4">
+        <v>15</v>
+      </c>
+      <c r="E604" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F604" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="G604" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="605" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A605" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B605" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C605" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D605" s="4">
+        <v>15</v>
+      </c>
+      <c r="E605" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F605" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G605" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="606" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A606" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B606" s="6">
+        <v>326</v>
+      </c>
+      <c r="C606" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D606" s="4">
+        <v>15</v>
+      </c>
+      <c r="E606" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F606" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G606" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="607" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A607" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B607" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C607" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D607" s="4">
+        <v>15</v>
+      </c>
+      <c r="E607" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F607" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="G607" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="608" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A608" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B608" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C608" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D608" s="4">
+        <v>15</v>
+      </c>
+      <c r="E608" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F608" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="G608" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="609" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A609" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B609" s="6">
+        <v>4163214</v>
+      </c>
+      <c r="C609" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D609" s="4">
+        <v>15</v>
+      </c>
+      <c r="E609" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F609" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G609" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="610" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A610" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B610" s="6">
+        <v>503853</v>
+      </c>
+      <c r="C610" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D610" s="4">
+        <v>15</v>
+      </c>
+      <c r="E610" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F610" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G610" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="611" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A611" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B611" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C611" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D611" s="4">
+        <v>15</v>
+      </c>
+      <c r="E611" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="F611" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G611" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="612" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A612" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B612" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C612" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D612" s="4">
+        <v>15</v>
+      </c>
+      <c r="E612" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F612" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="G612" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="613" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A613" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B613" s="6">
+        <v>503852</v>
+      </c>
+      <c r="C613" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D613" s="4">
+        <v>15</v>
+      </c>
+      <c r="E613" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F613" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G613" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="614" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A614" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B614" s="6">
+        <v>550197</v>
+      </c>
+      <c r="C614" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D614" s="4">
+        <v>15</v>
+      </c>
+      <c r="E614" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F614" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="G614" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="615" spans="1:7" ht="54" x14ac:dyDescent="0.35">
+      <c r="A615" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B615" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C615" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D615" s="4">
+        <v>15</v>
+      </c>
+      <c r="E615" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F615" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G615" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="616" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A616" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B616" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C616" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D616" s="4">
+        <v>15</v>
+      </c>
+      <c r="E616" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F616" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G616" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="617" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A617" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B617" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C617" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D617" s="4">
+        <v>15</v>
+      </c>
+      <c r="E617" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F617" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G617" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="618" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A618" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B618" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C618" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D618" s="4">
+        <v>15</v>
+      </c>
+      <c r="E618" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F618" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G618" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="619" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A619" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B619" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C619" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D619" s="4">
+        <v>15</v>
+      </c>
+      <c r="E619" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F619" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G619" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="620" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A620" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B620" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C620" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D620" s="4">
+        <v>15</v>
+      </c>
+      <c r="E620" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F620" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G620" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="621" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A621" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B621" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C621" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D621" s="4">
+        <v>15</v>
+      </c>
+      <c r="E621" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F621" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="G621" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="622" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A622" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B622" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C622" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D622" s="4">
+        <v>15</v>
+      </c>
+      <c r="E622" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="F622" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G622" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="623" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="A623" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B623" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C623" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D623" s="4">
+        <v>15</v>
+      </c>
+      <c r="E623" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F623" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G623" s="17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="624" spans="1:7" ht="36" x14ac:dyDescent="0.35">
+      <c r="A624" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B624" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C624" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D624" s="4">
+        <v>15</v>
+      </c>
+      <c r="E624" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="F624" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G624" s="17">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -6965,8 +15521,263 @@
     <hyperlink ref="A250" r:id="rId162" tooltip="Nẹp khóa xương đòn, móc xương đòn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b6&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
     <hyperlink ref="A251" r:id="rId163" tooltip="Túi máu đơn Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b4&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
     <hyperlink ref="A252" r:id="rId164" tooltip="Túi máu đôi Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b2&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A255" r:id="rId165" tooltip="Vít mắt cá chân đường kính 4.5mm" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ee&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A257" r:id="rId166" tooltip="Vi ống thông Asahi Tellus" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ea&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A258" r:id="rId167" tooltip="Vít xốp đường kính 6.5, ren 32 mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e8&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A260" r:id="rId168" tooltip="Vi ống thông can thiệp Asahi Masters PARKWAY HF KIT" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e4&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A262" r:id="rId169" tooltip="Vít xương cứng đường kính 4.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e0&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A263" r:id="rId170" tooltip="Vít xương cứng đường kính 3.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68de&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A264" r:id="rId171" tooltip="Khẩu trang 3 lớp hộp 55 cái" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68dc"/>
+    <hyperlink ref="A266" r:id="rId172" tooltip="Nẹp DCP, vít 3.5mm, 8~12 lỗ" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A268" r:id="rId173" tooltip="Dây cho ăn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d4&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A269" r:id="rId174" tooltip="Túi ép tiệt trùng Tyvek" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68cc&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A270" r:id="rId175" tooltip="Thông hậu môn (Rectal)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A271" r:id="rId176" tooltip="Dây thông T" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c6&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A273" r:id="rId177" tooltip="Nẹp khóa đa hướng đầu trên mâm chày (trái, phải)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c2&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A274" r:id="rId178" tooltip="Bộ túi máu rỗng 150 mL (4 túi)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cf&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A275" r:id="rId179" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cd&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A276" r:id="rId180" tooltip="CERTOFIX TRIO V 720" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cb&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A277" r:id="rId181" tooltip="Urgostart Micro-Adhesive 10cm x 10cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c9&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A278" r:id="rId182" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c7&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A279" r:id="rId183" tooltip="Thông foley 3 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c5&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A280" r:id="rId184" tooltip="Urgostart Micro-Adhesive 6cm x 6cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c3&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A281" r:id="rId185" tooltip="Urgostart Contact 5cm x 7cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c1&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A282" r:id="rId186" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Chỉ kèm miếng đệm Pledget 7x3x1,5mm." display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bf&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A283" r:id="rId187" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Đóng gói Multipack" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bd&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A284" r:id="rId188" tooltip="Chỉ không tan tổng hợp đơn sợi Surgipro số 7-0 dài 60, 2 kim tròn đầu cắt KV-11, 3/8C, 9mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bb&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A285" r:id="rId189" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b9&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A286" r:id="rId190" tooltip="Nẹp khóa xương đòn, móc xương đòn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b6&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A287" r:id="rId191" tooltip="Túi máu đơn Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b4&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A288" r:id="rId192" tooltip="Túi máu đôi Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b2&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A289" r:id="rId193" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Chỉ kèm miếng đệm Pledget 7x3x1,5mm." display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bf&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A290" r:id="rId194" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Đóng gói Multipack" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bd&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A291" r:id="rId195" tooltip="Chỉ không tan tổng hợp đơn sợi Surgipro số 7-0 dài 60, 2 kim tròn đầu cắt KV-11, 3/8C, 9mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bb&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A292" r:id="rId196" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b9&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A293" r:id="rId197" tooltip="Nẹp khóa xương đòn, móc xương đòn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b6&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A294" r:id="rId198" tooltip="Túi máu đơn Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b4&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A295" r:id="rId199" tooltip="Túi máu đôi Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b2&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A298" r:id="rId200" tooltip="Vít mắt cá chân đường kính 4.5mm" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ee&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A300" r:id="rId201" tooltip="Vi ống thông Asahi Tellus" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ea&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A301" r:id="rId202" tooltip="Vít xốp đường kính 6.5, ren 32 mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e8&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A303" r:id="rId203" tooltip="Vi ống thông can thiệp Asahi Masters PARKWAY HF KIT" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e4&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A305" r:id="rId204" tooltip="Vít xương cứng đường kính 4.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e0&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A306" r:id="rId205" tooltip="Vít xương cứng đường kính 3.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68de&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A307" r:id="rId206" tooltip="Khẩu trang 3 lớp hộp 55 cái" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68dc"/>
+    <hyperlink ref="A309" r:id="rId207" tooltip="Nẹp DCP, vít 3.5mm, 8~12 lỗ" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A311" r:id="rId208" tooltip="Dây cho ăn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d4&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A312" r:id="rId209" tooltip="Túi ép tiệt trùng Tyvek" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68cc&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A313" r:id="rId210" tooltip="Thông hậu môn (Rectal)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A314" r:id="rId211" tooltip="Dây thông T" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c6&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A316" r:id="rId212" tooltip="Nẹp khóa đa hướng đầu trên mâm chày (trái, phải)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c2&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A317" r:id="rId213" tooltip="Bộ túi máu rỗng 150 mL (4 túi)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cf&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A318" r:id="rId214" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cd&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A319" r:id="rId215" tooltip="CERTOFIX TRIO V 720" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cb&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A320" r:id="rId216" tooltip="Urgostart Micro-Adhesive 10cm x 10cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c9&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A321" r:id="rId217" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c7&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A322" r:id="rId218" tooltip="Thông foley 3 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c5&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A323" r:id="rId219" tooltip="Urgostart Micro-Adhesive 6cm x 6cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c3&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A324" r:id="rId220" tooltip="Urgostart Contact 5cm x 7cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c1&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A325" r:id="rId221" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Chỉ kèm miếng đệm Pledget 7x3x1,5mm." display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bf&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A326" r:id="rId222" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Đóng gói Multipack" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bd&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A327" r:id="rId223" tooltip="Chỉ không tan tổng hợp đơn sợi Surgipro số 7-0 dài 60, 2 kim tròn đầu cắt KV-11, 3/8C, 9mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bb&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A328" r:id="rId224" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b9&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A329" r:id="rId225" tooltip="Nẹp khóa xương đòn, móc xương đòn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b6&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A330" r:id="rId226" tooltip="Túi máu đơn Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b4&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A331" r:id="rId227" tooltip="Túi máu đôi Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b2&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A332" r:id="rId228" tooltip="Urgostart Micro-Adhesive 6cm x 6cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c3&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A333" r:id="rId229" tooltip="Urgostart Contact 5cm x 7cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c1&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A334" r:id="rId230" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Chỉ kèm miếng đệm Pledget 7x3x1,5mm." display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bf&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A335" r:id="rId231" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Đóng gói Multipack" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bd&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A336" r:id="rId232" tooltip="Chỉ không tan tổng hợp đơn sợi Surgipro số 7-0 dài 60, 2 kim tròn đầu cắt KV-11, 3/8C, 9mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bb&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A337" r:id="rId233" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b9&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A338" r:id="rId234" tooltip="Nẹp khóa xương đòn, móc xương đòn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b6&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A339" r:id="rId235" tooltip="Túi máu đơn Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b4&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A340" r:id="rId236" tooltip="Túi máu đôi Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b2&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A341" r:id="rId237" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Chỉ kèm miếng đệm Pledget 7x3x1,5mm." display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bf&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A342" r:id="rId238" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Đóng gói Multipack" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bd&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A343" r:id="rId239" tooltip="Chỉ không tan tổng hợp đơn sợi Surgipro số 7-0 dài 60, 2 kim tròn đầu cắt KV-11, 3/8C, 9mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bb&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A344" r:id="rId240" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b9&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A345" r:id="rId241" tooltip="Nẹp khóa xương đòn, móc xương đòn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b6&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A346" r:id="rId242" tooltip="Túi máu đơn Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b4&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A347" r:id="rId243" tooltip="Túi máu đôi Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b2&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A350" r:id="rId244" tooltip="Vít mắt cá chân đường kính 4.5mm" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ee&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A352" r:id="rId245" tooltip="Vi ống thông Asahi Tellus" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ea&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A353" r:id="rId246" tooltip="Vít xốp đường kính 6.5, ren 32 mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e8&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A355" r:id="rId247" tooltip="Vi ống thông can thiệp Asahi Masters PARKWAY HF KIT" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e4&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A357" r:id="rId248" tooltip="Vít xương cứng đường kính 4.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e0&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A358" r:id="rId249" tooltip="Vít xương cứng đường kính 3.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68de&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A359" r:id="rId250" tooltip="Khẩu trang 3 lớp hộp 55 cái" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68dc"/>
+    <hyperlink ref="A361" r:id="rId251" tooltip="Nẹp DCP, vít 3.5mm, 8~12 lỗ" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A363" r:id="rId252" tooltip="Dây cho ăn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d4&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A364" r:id="rId253" tooltip="Túi ép tiệt trùng Tyvek" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68cc&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A365" r:id="rId254" tooltip="Thông hậu môn (Rectal)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A366" r:id="rId255" tooltip="Dây thông T" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c6&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A368" r:id="rId256" tooltip="Nẹp khóa đa hướng đầu trên mâm chày (trái, phải)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c2&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A369" r:id="rId257" tooltip="Bộ túi máu rỗng 150 mL (4 túi)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cf&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A370" r:id="rId258" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cd&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A371" r:id="rId259" tooltip="CERTOFIX TRIO V 720" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cb&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A372" r:id="rId260" tooltip="Urgostart Micro-Adhesive 10cm x 10cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c9&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A373" r:id="rId261" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c7&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A374" r:id="rId262" tooltip="Thông foley 3 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c5&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A375" r:id="rId263" tooltip="Urgostart Micro-Adhesive 6cm x 6cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c3&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A376" r:id="rId264" tooltip="Urgostart Contact 5cm x 7cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c1&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A377" r:id="rId265" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Chỉ kèm miếng đệm Pledget 7x3x1,5mm." display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bf&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A378" r:id="rId266" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Đóng gói Multipack" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bd&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A379" r:id="rId267" tooltip="Chỉ không tan tổng hợp đơn sợi Surgipro số 7-0 dài 60, 2 kim tròn đầu cắt KV-11, 3/8C, 9mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bb&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A380" r:id="rId268" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b9&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A381" r:id="rId269" tooltip="Nẹp khóa xương đòn, móc xương đòn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b6&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A382" r:id="rId270" tooltip="Túi máu đơn Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b4&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A383" r:id="rId271" tooltip="Túi máu đôi Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b2&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A401" r:id="rId272" tooltip="Vít mắt cá chân đường kính 4.5mm" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ee&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A403" r:id="rId273" tooltip="Vi ống thông Asahi Tellus" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ea&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A404" r:id="rId274" tooltip="Vít xốp đường kính 6.5, ren 32 mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e8&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A406" r:id="rId275" tooltip="Vi ống thông can thiệp Asahi Masters PARKWAY HF KIT" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e4&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A408" r:id="rId276" tooltip="Vít xương cứng đường kính 4.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e0&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A409" r:id="rId277" tooltip="Vít xương cứng đường kính 3.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68de&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A410" r:id="rId278" tooltip="Khẩu trang 3 lớp hộp 55 cái" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68dc"/>
+    <hyperlink ref="A412" r:id="rId279" tooltip="Nẹp DCP, vít 3.5mm, 8~12 lỗ" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A414" r:id="rId280" tooltip="Dây cho ăn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d4&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A415" r:id="rId281" tooltip="Túi ép tiệt trùng Tyvek" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68cc&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A416" r:id="rId282" tooltip="Thông hậu môn (Rectal)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A417" r:id="rId283" tooltip="Dây thông T" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c6&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A419" r:id="rId284" tooltip="Nẹp khóa đa hướng đầu trên mâm chày (trái, phải)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c2&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A420" r:id="rId285" tooltip="Bộ túi máu rỗng 150 mL (4 túi)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cf&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A421" r:id="rId286" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cd&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A422" r:id="rId287" tooltip="CERTOFIX TRIO V 720" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cb&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A423" r:id="rId288" tooltip="Urgostart Micro-Adhesive 10cm x 10cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c9&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A424" r:id="rId289" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c7&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A425" r:id="rId290" tooltip="Thông foley 3 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c5&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A426" r:id="rId291" tooltip="Urgostart Micro-Adhesive 6cm x 6cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c3&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A427" r:id="rId292" tooltip="Urgostart Contact 5cm x 7cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c1&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A428" r:id="rId293" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Chỉ kèm miếng đệm Pledget 7x3x1,5mm." display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bf&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A429" r:id="rId294" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Đóng gói Multipack" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bd&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A430" r:id="rId295" tooltip="Chỉ không tan tổng hợp đơn sợi Surgipro số 7-0 dài 60, 2 kim tròn đầu cắt KV-11, 3/8C, 9mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bb&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A431" r:id="rId296" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b9&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A432" r:id="rId297" tooltip="Nẹp khóa xương đòn, móc xương đòn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b6&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A433" r:id="rId298" tooltip="Túi máu đơn Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b4&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A434" r:id="rId299" tooltip="Túi máu đôi Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b2&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A435" r:id="rId300" tooltip="Thông foley 2 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b0&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A436" r:id="rId301" tooltip="Nẹp khóa ốp lồi cầu đùi" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67ae&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A437" r:id="rId302" tooltip="Bộ dây truyền chống gập màu vàng kèm túi chứa dịch giảm đau 200ml dùng cho máy Rythmic Evolution" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67ac&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A455" r:id="rId303" tooltip="Vít mắt cá chân đường kính 4.5mm" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ee&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A457" r:id="rId304" tooltip="Vi ống thông Asahi Tellus" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ea&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A458" r:id="rId305" tooltip="Vít xốp đường kính 6.5, ren 32 mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e8&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A460" r:id="rId306" tooltip="Vi ống thông can thiệp Asahi Masters PARKWAY HF KIT" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e4&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A462" r:id="rId307" tooltip="Vít xương cứng đường kính 4.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e0&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A463" r:id="rId308" tooltip="Vít xương cứng đường kính 3.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68de&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A464" r:id="rId309" tooltip="Khẩu trang 3 lớp hộp 55 cái" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68dc"/>
+    <hyperlink ref="A466" r:id="rId310" tooltip="Nẹp DCP, vít 3.5mm, 8~12 lỗ" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A468" r:id="rId311" tooltip="Dây cho ăn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d4&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A469" r:id="rId312" tooltip="Túi ép tiệt trùng Tyvek" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68cc&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A470" r:id="rId313" tooltip="Thông hậu môn (Rectal)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A471" r:id="rId314" tooltip="Dây thông T" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c6&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A473" r:id="rId315" tooltip="Nẹp khóa đa hướng đầu trên mâm chày (trái, phải)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c2&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A474" r:id="rId316" tooltip="Bộ túi máu rỗng 150 mL (4 túi)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cf&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A475" r:id="rId317" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cd&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A476" r:id="rId318" tooltip="CERTOFIX TRIO V 720" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cb&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A477" r:id="rId319" tooltip="Urgostart Micro-Adhesive 10cm x 10cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c9&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A478" r:id="rId320" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c7&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A479" r:id="rId321" tooltip="Thông foley 3 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c5&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A480" r:id="rId322" tooltip="Urgostart Micro-Adhesive 6cm x 6cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c3&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A481" r:id="rId323" tooltip="Urgostart Contact 5cm x 7cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c1&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A482" r:id="rId324" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Chỉ kèm miếng đệm Pledget 7x3x1,5mm." display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bf&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A483" r:id="rId325" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Đóng gói Multipack" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bd&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A484" r:id="rId326" tooltip="Chỉ không tan tổng hợp đơn sợi Surgipro số 7-0 dài 60, 2 kim tròn đầu cắt KV-11, 3/8C, 9mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bb&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A485" r:id="rId327" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b9&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A486" r:id="rId328" tooltip="Nẹp khóa xương đòn, móc xương đòn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b6&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A487" r:id="rId329" tooltip="Túi máu đơn Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b4&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A488" r:id="rId330" tooltip="Túi máu đôi Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b2&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A489" r:id="rId331" tooltip="Thông foley 2 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b0&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A490" r:id="rId332" tooltip="Nẹp khóa ốp lồi cầu đùi" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67ae&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A491" r:id="rId333" tooltip="Bộ dây truyền chống gập màu vàng kèm túi chứa dịch giảm đau 200ml dùng cho máy Rythmic Evolution" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67ac&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A509" r:id="rId334" tooltip="Vít mắt cá chân đường kính 4.5mm" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ee&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A511" r:id="rId335" tooltip="Vi ống thông Asahi Tellus" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ea&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A512" r:id="rId336" tooltip="Vít xốp đường kính 6.5, ren 32 mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e8&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A514" r:id="rId337" tooltip="Vi ống thông can thiệp Asahi Masters PARKWAY HF KIT" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e4&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A516" r:id="rId338" tooltip="Vít xương cứng đường kính 4.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e0&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A517" r:id="rId339" tooltip="Vít xương cứng đường kính 3.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68de&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A518" r:id="rId340" tooltip="Khẩu trang 3 lớp hộp 55 cái" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68dc"/>
+    <hyperlink ref="A520" r:id="rId341" tooltip="Nẹp DCP, vít 3.5mm, 8~12 lỗ" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A522" r:id="rId342" tooltip="Dây cho ăn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d4&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A523" r:id="rId343" tooltip="Túi ép tiệt trùng Tyvek" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68cc&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A524" r:id="rId344" tooltip="Thông hậu môn (Rectal)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A525" r:id="rId345" tooltip="Dây thông T" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c6&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A527" r:id="rId346" tooltip="Nẹp khóa đa hướng đầu trên mâm chày (trái, phải)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c2&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A528" r:id="rId347" tooltip="Bộ túi máu rỗng 150 mL (4 túi)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cf&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A529" r:id="rId348" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cd&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A530" r:id="rId349" tooltip="CERTOFIX TRIO V 720" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cb&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A531" r:id="rId350" tooltip="Urgostart Micro-Adhesive 10cm x 10cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c9&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A532" r:id="rId351" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c7&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A533" r:id="rId352" tooltip="Thông foley 3 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c5&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A534" r:id="rId353" tooltip="Urgostart Micro-Adhesive 6cm x 6cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c3&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A535" r:id="rId354" tooltip="Urgostart Contact 5cm x 7cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c1&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A536" r:id="rId355" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Chỉ kèm miếng đệm Pledget 7x3x1,5mm." display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bf&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A537" r:id="rId356" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Đóng gói Multipack" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bd&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A538" r:id="rId357" tooltip="Chỉ không tan tổng hợp đơn sợi Surgipro số 7-0 dài 60, 2 kim tròn đầu cắt KV-11, 3/8C, 9mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bb&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A539" r:id="rId358" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b9&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A540" r:id="rId359" tooltip="Nẹp khóa xương đòn, móc xương đòn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b6&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A541" r:id="rId360" tooltip="Túi máu đơn Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b4&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A542" r:id="rId361" tooltip="Túi máu đôi Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b2&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A543" r:id="rId362" tooltip="Thông foley 2 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b0&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A544" r:id="rId363" tooltip="Nẹp khóa ốp lồi cầu đùi" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67ae&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A545" r:id="rId364" tooltip="Bộ dây truyền chống gập màu vàng kèm túi chứa dịch giảm đau 200ml dùng cho máy Rythmic Evolution" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67ac&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A561" r:id="rId365" tooltip="Vít mắt cá chân đường kính 4.5mm" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ee&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A563" r:id="rId366" tooltip="Vi ống thông Asahi Tellus" display="http://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68ea&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A564" r:id="rId367" tooltip="Vít xốp đường kính 6.5, ren 32 mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e8&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A566" r:id="rId368" tooltip="Vi ống thông can thiệp Asahi Masters PARKWAY HF KIT" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e4&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A568" r:id="rId369" tooltip="Vít xương cứng đường kính 4.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68e0&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A569" r:id="rId370" tooltip="Vít xương cứng đường kính 3.5mm, tự taro" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68de&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A570" r:id="rId371" tooltip="Khẩu trang 3 lớp hộp 55 cái" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68dc"/>
+    <hyperlink ref="A572" r:id="rId372" tooltip="Nẹp DCP, vít 3.5mm, 8~12 lỗ" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A574" r:id="rId373" tooltip="Dây cho ăn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d4&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A575" r:id="rId374" tooltip="Túi ép tiệt trùng Tyvek" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68cc&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A576" r:id="rId375" tooltip="Thông hậu môn (Rectal)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A577" r:id="rId376" tooltip="Dây thông T" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c6&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A579" r:id="rId377" tooltip="Nẹp khóa đa hướng đầu trên mâm chày (trái, phải)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c2&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A580" r:id="rId378" tooltip="Bộ túi máu rỗng 150 mL (4 túi)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cf&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A581" r:id="rId379" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cd&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A582" r:id="rId380" tooltip="CERTOFIX TRIO V 720" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cb&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A583" r:id="rId381" tooltip="Urgostart Micro-Adhesive 10cm x 10cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c9&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A584" r:id="rId382" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c7&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A585" r:id="rId383" tooltip="Thông foley 3 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c5&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A586" r:id="rId384" tooltip="Urgostart Micro-Adhesive 6cm x 6cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c3&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A587" r:id="rId385" tooltip="Urgostart Contact 5cm x 7cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c1&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A588" r:id="rId386" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Chỉ kèm miếng đệm Pledget 7x3x1,5mm." display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bf&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A589" r:id="rId387" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Đóng gói Multipack" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bd&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A590" r:id="rId388" tooltip="Chỉ không tan tổng hợp đơn sợi Surgipro số 7-0 dài 60, 2 kim tròn đầu cắt KV-11, 3/8C, 9mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bb&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A591" r:id="rId389" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b9&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A592" r:id="rId390" tooltip="Nẹp khóa xương đòn, móc xương đòn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b6&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A593" r:id="rId391" tooltip="Túi máu đơn Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b4&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A594" r:id="rId392" tooltip="Túi máu đôi Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b2&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A595" r:id="rId393" tooltip="Thông foley 2 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b0&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A596" r:id="rId394" tooltip="Nẹp khóa ốp lồi cầu đùi" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67ae&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A597" r:id="rId395" tooltip="Bộ dây truyền chống gập màu vàng kèm túi chứa dịch giảm đau 200ml dùng cho máy Rythmic Evolution" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67ac&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A599" r:id="rId396" tooltip="Nẹp DCP, vít 3.5mm, 8~12 lỗ" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A601" r:id="rId397" tooltip="Dây cho ăn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68d4&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A602" r:id="rId398" tooltip="Túi ép tiệt trùng Tyvek" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68cc&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A603" r:id="rId399" tooltip="Thông hậu môn (Rectal)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c8&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A604" r:id="rId400" tooltip="Dây thông T" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c6&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A606" r:id="rId401" tooltip="Nẹp khóa đa hướng đầu trên mâm chày (trái, phải)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78afffdf9a12984a68c2&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A607" r:id="rId402" tooltip="Bộ túi máu rỗng 150 mL (4 túi)" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cf&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A608" r:id="rId403" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cd&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A609" r:id="rId404" tooltip="CERTOFIX TRIO V 720" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67cb&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A610" r:id="rId405" tooltip="Urgostart Micro-Adhesive 10cm x 10cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c9&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A611" r:id="rId406" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c7&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A612" r:id="rId407" tooltip="Thông foley 3 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c5&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A613" r:id="rId408" tooltip="Urgostart Micro-Adhesive 6cm x 6cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c3&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A614" r:id="rId409" tooltip="Urgostart Contact 5cm x 7cm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67c1&amp;categoryId=5f9bc4e35c52b2593d16de25"/>
+    <hyperlink ref="A615" r:id="rId410" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Chỉ kèm miếng đệm Pledget 7x3x1,5mm." display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bf&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A616" r:id="rId411" tooltip="Chỉ không tan tổng hợp sợi bên Ticron số 2-0 dài 75, 2 kim tròn đầu nhọn CV-316, 1/2C, 20mm. Đóng gói Multipack" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bd&amp;categoryId=5f9bc50c4c653c5c706c3d85"/>
+    <hyperlink ref="A617" r:id="rId412" tooltip="Chỉ không tan tổng hợp đơn sợi Surgipro số 7-0 dài 60, 2 kim tròn đầu cắt KV-11, 3/8C, 9mm" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67bb&amp;categoryId=5f9bc57da7307960eb32bb63"/>
+    <hyperlink ref="A618" r:id="rId413" tooltip="Chất nhầy nhãn khoa" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b9&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A619" r:id="rId414" tooltip="Nẹp khóa xương đòn, móc xương đòn" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b6&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A620" r:id="rId415" tooltip="Túi máu đơn Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78acffdf9a12984a67b4&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A621" r:id="rId416" tooltip="Túi máu đôi Demotek 250mL" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b2&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A622" r:id="rId417" tooltip="Thông foley 2 nhánh" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67b0&amp;categoryId=5f9bc61ca5bf323cf13ecc15"/>
+    <hyperlink ref="A623" r:id="rId418" tooltip="Nẹp khóa ốp lồi cầu đùi" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67ae&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
+    <hyperlink ref="A624" r:id="rId419" tooltip="Bộ dây truyền chống gập màu vàng kèm túi chứa dịch giảm đau 200ml dùng cho máy Rythmic Evolution" display="https://congkhaiyte.moh.gov.vn/?page=Project.MedicalPrice.Home.MedicalPrice.Material.detail&amp;id=611f78abffdf9a12984a67ac&amp;categoryId=5f9bc540c5dbc2404e1d7e23"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId165"/>
+  <pageSetup orientation="portrait" r:id="rId420"/>
 </worksheet>
 </file>